--- a/dataanalysis/alert/0702.xlsx
+++ b/dataanalysis/alert/0702.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="195">
   <si>
     <t>序号</t>
   </si>
@@ -101,12 +101,36 @@
     <t>否</t>
   </si>
   <si>
+    <t>北陆药业</t>
+  </si>
+  <si>
+    <t>化学制剂</t>
+  </si>
+  <si>
+    <t>脑机</t>
+  </si>
+  <si>
+    <t>台基股份</t>
+  </si>
+  <si>
+    <t>功率半导体</t>
+  </si>
+  <si>
+    <t>芯片</t>
+  </si>
+  <si>
+    <t>科新机电</t>
+  </si>
+  <si>
+    <t>能源及重型设备</t>
+  </si>
+  <si>
+    <t>军工 油气</t>
+  </si>
+  <si>
     <t>华伍股份</t>
   </si>
   <si>
-    <t>能源及重型设备</t>
-  </si>
-  <si>
     <t>海工+稀土+航空</t>
   </si>
   <si>
@@ -122,6 +146,27 @@
     <t>化工+回购</t>
   </si>
   <si>
+    <t>新国都</t>
+  </si>
+  <si>
+    <t>其他IT设备</t>
+  </si>
+  <si>
+    <t>支付</t>
+  </si>
+  <si>
+    <t>新锦动力</t>
+  </si>
+  <si>
+    <t>其他通用设备</t>
+  </si>
+  <si>
+    <t>华峰超纤</t>
+  </si>
+  <si>
+    <t>合成革</t>
+  </si>
+  <si>
     <t>长海股份</t>
   </si>
   <si>
@@ -134,12 +179,54 @@
     <t>翰宇药业</t>
   </si>
   <si>
-    <t>化学制剂</t>
-  </si>
-  <si>
     <t>创新药</t>
   </si>
   <si>
+    <t>舒泰神</t>
+  </si>
+  <si>
+    <t>其他生物制药</t>
+  </si>
+  <si>
+    <t>联建光电</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>军工 +LED</t>
+  </si>
+  <si>
+    <t>科恒股份</t>
+  </si>
+  <si>
+    <t>电池化学品</t>
+  </si>
+  <si>
+    <t>固态电池</t>
+  </si>
+  <si>
+    <t>飞天诚信</t>
+  </si>
+  <si>
+    <t>金融安全</t>
+  </si>
+  <si>
+    <t>中光防雷</t>
+  </si>
+  <si>
+    <t>其他通信设备</t>
+  </si>
+  <si>
+    <t>强力新材</t>
+  </si>
+  <si>
+    <t>半导体材料</t>
+  </si>
+  <si>
+    <t>光刻胶</t>
+  </si>
+  <si>
     <t>山河药辅</t>
   </si>
   <si>
@@ -149,6 +236,90 @@
     <t>药店</t>
   </si>
   <si>
+    <t>四方精创</t>
+  </si>
+  <si>
+    <t>行业应用软件</t>
+  </si>
+  <si>
+    <t>赛升药业</t>
+  </si>
+  <si>
+    <t>抗体</t>
+  </si>
+  <si>
+    <t>三德科技</t>
+  </si>
+  <si>
+    <t>仪器仪表</t>
+  </si>
+  <si>
+    <t>机器人 煤炭</t>
+  </si>
+  <si>
+    <t>中船应急</t>
+  </si>
+  <si>
+    <t>地面兵装</t>
+  </si>
+  <si>
+    <t>军工-地面兵装</t>
+  </si>
+  <si>
+    <t>优博讯</t>
+  </si>
+  <si>
+    <t>冰川网络</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>广信材料</t>
+  </si>
+  <si>
+    <t>星源材质</t>
+  </si>
+  <si>
+    <t>晨曦航空</t>
+  </si>
+  <si>
+    <t>航空装备</t>
+  </si>
+  <si>
+    <t>江龙船艇</t>
+  </si>
+  <si>
+    <t>军工-航海</t>
+  </si>
+  <si>
+    <t>万里马</t>
+  </si>
+  <si>
+    <t>鞋帽及其他</t>
+  </si>
+  <si>
+    <t>国瑞科技</t>
+  </si>
+  <si>
+    <t>金银河</t>
+  </si>
+  <si>
+    <t>锂电设备</t>
+  </si>
+  <si>
+    <t>正元智慧</t>
+  </si>
+  <si>
+    <t>杭州园林</t>
+  </si>
+  <si>
+    <t>园林工程</t>
+  </si>
+  <si>
+    <t>稳定币</t>
+  </si>
+  <si>
     <t>飞鹿股份</t>
   </si>
   <si>
@@ -158,12 +329,138 @@
     <t>核电+光伏</t>
   </si>
   <si>
+    <t>朗新集团</t>
+  </si>
+  <si>
+    <t>兆丰股份</t>
+  </si>
+  <si>
+    <t>轮胎轮毂</t>
+  </si>
+  <si>
+    <t>汽配</t>
+  </si>
+  <si>
+    <t>电工合金</t>
+  </si>
+  <si>
+    <t>铜</t>
+  </si>
+  <si>
+    <t>铜缆</t>
+  </si>
+  <si>
+    <t>新余国科</t>
+  </si>
+  <si>
+    <t>航天装备</t>
+  </si>
+  <si>
+    <t>锐科激光</t>
+  </si>
+  <si>
+    <t>激光设备</t>
+  </si>
+  <si>
+    <t>无飞机</t>
+  </si>
+  <si>
+    <t>爱朋医疗</t>
+  </si>
+  <si>
+    <t>医疗设备</t>
+  </si>
+  <si>
+    <t>震安科技</t>
+  </si>
+  <si>
+    <t>橡胶制品</t>
+  </si>
+  <si>
+    <t>核电</t>
+  </si>
+  <si>
+    <t>拉卡拉</t>
+  </si>
+  <si>
+    <t>其他金融服务</t>
+  </si>
+  <si>
+    <t>指南针</t>
+  </si>
+  <si>
+    <t>互金</t>
+  </si>
+  <si>
     <t>中科海讯</t>
   </si>
   <si>
     <t>海工</t>
   </si>
   <si>
+    <t>天阳科技</t>
+  </si>
+  <si>
+    <t>其他云服务</t>
+  </si>
+  <si>
+    <t>捷强装备</t>
+  </si>
+  <si>
+    <t>科翔股份</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>固态电池+PCB</t>
+  </si>
+  <si>
+    <t>天秦装备</t>
+  </si>
+  <si>
+    <t>德必集团</t>
+  </si>
+  <si>
+    <t>商业物业经营</t>
+  </si>
+  <si>
+    <t>新消费+IP</t>
+  </si>
+  <si>
+    <t>恒宇信通</t>
+  </si>
+  <si>
+    <t>无人机</t>
+  </si>
+  <si>
+    <t>博亚精工</t>
+  </si>
+  <si>
+    <t>机械基础件</t>
+  </si>
+  <si>
+    <t>军工+赔偿金1500w</t>
+  </si>
+  <si>
+    <t>创益通</t>
+  </si>
+  <si>
+    <t>消费电子组件</t>
+  </si>
+  <si>
+    <t>铜缆+比亚迪</t>
+  </si>
+  <si>
+    <t>玉马科技</t>
+  </si>
+  <si>
+    <t>其他家居</t>
+  </si>
+  <si>
+    <t>家居</t>
+  </si>
+  <si>
     <t>德迈仕</t>
   </si>
   <si>
@@ -173,6 +470,51 @@
     <t>重组+丝杠</t>
   </si>
   <si>
+    <t>海泰科</t>
+  </si>
+  <si>
+    <t>其他专用设备</t>
+  </si>
+  <si>
+    <t>小米汽车</t>
+  </si>
+  <si>
+    <t>霍普股份</t>
+  </si>
+  <si>
+    <t>工程咨询服务</t>
+  </si>
+  <si>
+    <t>腾亚精工</t>
+  </si>
+  <si>
+    <t>五金+扭亏</t>
+  </si>
+  <si>
+    <t>满坤科技</t>
+  </si>
+  <si>
+    <t>哈焊华通</t>
+  </si>
+  <si>
+    <t>金属制品</t>
+  </si>
+  <si>
+    <t>中科磁业</t>
+  </si>
+  <si>
+    <t>磁性材料</t>
+  </si>
+  <si>
+    <t>逸豪新材</t>
+  </si>
+  <si>
+    <t>工大科雅</t>
+  </si>
+  <si>
+    <t>华为鲲鹏</t>
+  </si>
+  <si>
     <t>联特科技</t>
   </si>
   <si>
@@ -182,190 +524,73 @@
     <t>CPO</t>
   </si>
   <si>
+    <t>观想科技</t>
+  </si>
+  <si>
+    <t>军工电子</t>
+  </si>
+  <si>
+    <t>智立方</t>
+  </si>
+  <si>
+    <t>其他自动化设备</t>
+  </si>
+  <si>
+    <t>半导体设备</t>
+  </si>
+  <si>
+    <t>唯特偶</t>
+  </si>
+  <si>
+    <t>其他电子</t>
+  </si>
+  <si>
+    <t>涛涛车业</t>
+  </si>
+  <si>
+    <t>其他交通设备</t>
+  </si>
+  <si>
+    <t>无人车+预赢</t>
+  </si>
+  <si>
+    <t>天山电子</t>
+  </si>
+  <si>
+    <t>面板</t>
+  </si>
+  <si>
+    <t>消费电子</t>
+  </si>
+  <si>
+    <t>华人健康</t>
+  </si>
+  <si>
+    <t>医药流通</t>
+  </si>
+  <si>
+    <t>波长光电</t>
+  </si>
+  <si>
+    <t>光学元件</t>
+  </si>
+  <si>
+    <t>德福科技</t>
+  </si>
+  <si>
+    <t>锂电池</t>
+  </si>
+  <si>
+    <t>固态-铜箔</t>
+  </si>
+  <si>
     <t>晶品特装</t>
   </si>
   <si>
-    <t>地面兵装</t>
-  </si>
-  <si>
-    <t>军工电子</t>
-  </si>
-  <si>
-    <t>台基股份</t>
-  </si>
-  <si>
-    <t>功率半导体</t>
-  </si>
-  <si>
-    <t>芯片</t>
-  </si>
-  <si>
-    <t>科新机电</t>
-  </si>
-  <si>
-    <t>军工 油气</t>
-  </si>
-  <si>
-    <t>强力新材</t>
-  </si>
-  <si>
-    <t>半导体材料</t>
-  </si>
-  <si>
-    <t>光刻胶</t>
-  </si>
-  <si>
-    <t>中船应急</t>
-  </si>
-  <si>
-    <t>军工-地面兵装</t>
-  </si>
-  <si>
-    <t>星源材质</t>
-  </si>
-  <si>
-    <t>电池化学品</t>
-  </si>
-  <si>
-    <t>固态电池</t>
-  </si>
-  <si>
-    <t>江龙船艇</t>
-  </si>
-  <si>
-    <t>军工-航海</t>
-  </si>
-  <si>
-    <t>电工合金</t>
-  </si>
-  <si>
-    <t>铜</t>
-  </si>
-  <si>
-    <t>铜缆</t>
-  </si>
-  <si>
-    <t>震安科技</t>
-  </si>
-  <si>
-    <t>橡胶制品</t>
-  </si>
-  <si>
-    <t>核电</t>
-  </si>
-  <si>
-    <t>恒宇信通</t>
-  </si>
-  <si>
-    <t>航空装备</t>
-  </si>
-  <si>
-    <t>无人机</t>
-  </si>
-  <si>
-    <t>博亚精工</t>
-  </si>
-  <si>
-    <t>机械基础件</t>
-  </si>
-  <si>
-    <t>军工+赔偿金1500w</t>
-  </si>
-  <si>
-    <t>霍普股份</t>
-  </si>
-  <si>
-    <t>工程咨询服务</t>
-  </si>
-  <si>
-    <t>支付</t>
-  </si>
-  <si>
-    <t>腾亚精工</t>
-  </si>
-  <si>
-    <t>五金+扭亏</t>
-  </si>
-  <si>
-    <t>涛涛车业</t>
-  </si>
-  <si>
-    <t>其他交通设备</t>
-  </si>
-  <si>
-    <t>无人车+预赢</t>
-  </si>
-  <si>
-    <t>华人健康</t>
-  </si>
-  <si>
-    <t>医药流通</t>
-  </si>
-  <si>
-    <t>新锦动力</t>
-  </si>
-  <si>
-    <t>其他通用设备</t>
-  </si>
-  <si>
-    <t>联建光电</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>军工 +LED</t>
-  </si>
-  <si>
-    <t>广信材料</t>
-  </si>
-  <si>
-    <t>锐科激光</t>
-  </si>
-  <si>
-    <t>激光设备</t>
-  </si>
-  <si>
-    <t>无飞机</t>
-  </si>
-  <si>
-    <t>捷强装备</t>
-  </si>
-  <si>
-    <t>德必集团</t>
-  </si>
-  <si>
-    <t>商业物业经营</t>
-  </si>
-  <si>
-    <t>新消费+IP</t>
-  </si>
-  <si>
-    <t>创益通</t>
-  </si>
-  <si>
-    <t>消费电子组件</t>
-  </si>
-  <si>
-    <t>铜缆+比亚迪</t>
-  </si>
-  <si>
-    <t>玉马科技</t>
-  </si>
-  <si>
-    <t>其他家居</t>
-  </si>
-  <si>
-    <t>家居</t>
-  </si>
-  <si>
-    <t>哈焊华通</t>
-  </si>
-  <si>
-    <t>金属制品</t>
-  </si>
-  <si>
-    <t>观想科技</t>
+    <t>军工+机器人</t>
+  </si>
+  <si>
+    <t>圣诺生物</t>
   </si>
   <si>
     <t>华强科技</t>
@@ -374,241 +599,19 @@
     <t>医疗耗材</t>
   </si>
   <si>
-    <t>中光防雷</t>
-  </si>
-  <si>
-    <t>其他通信设备</t>
-  </si>
-  <si>
-    <t>国瑞科技</t>
-  </si>
-  <si>
-    <t>杭州园林</t>
-  </si>
-  <si>
-    <t>园林工程</t>
-  </si>
-  <si>
-    <t>稳定币</t>
-  </si>
-  <si>
-    <t>指南针</t>
-  </si>
-  <si>
-    <t>行业应用软件</t>
-  </si>
-  <si>
-    <t>互金</t>
-  </si>
-  <si>
-    <t>中科磁业</t>
-  </si>
-  <si>
-    <t>磁性材料</t>
-  </si>
-  <si>
-    <t>工大科雅</t>
-  </si>
-  <si>
-    <t>华为鲲鹏</t>
-  </si>
-  <si>
-    <t>智立方</t>
-  </si>
-  <si>
-    <t>其他自动化设备</t>
-  </si>
-  <si>
-    <t>半导体设备</t>
-  </si>
-  <si>
-    <t>唯特偶</t>
-  </si>
-  <si>
-    <t>其他电子</t>
+    <t>利元亨</t>
+  </si>
+  <si>
+    <t>国科军工</t>
+  </si>
+  <si>
+    <t>信宇人</t>
   </si>
   <si>
     <t>泰凌微</t>
   </si>
   <si>
     <t>集成电路设计</t>
-  </si>
-  <si>
-    <t>新余国科</t>
-  </si>
-  <si>
-    <t>航天装备</t>
-  </si>
-  <si>
-    <t>天秦装备</t>
-  </si>
-  <si>
-    <t>海泰科</t>
-  </si>
-  <si>
-    <t>其他专用设备</t>
-  </si>
-  <si>
-    <t>小米汽车</t>
-  </si>
-  <si>
-    <t>飞天诚信</t>
-  </si>
-  <si>
-    <t>其他IT设备</t>
-  </si>
-  <si>
-    <t>金融安全</t>
-  </si>
-  <si>
-    <t>三德科技</t>
-  </si>
-  <si>
-    <t>仪器仪表</t>
-  </si>
-  <si>
-    <t>机器人 煤炭</t>
-  </si>
-  <si>
-    <t>冰川网络</t>
-  </si>
-  <si>
-    <t>游戏</t>
-  </si>
-  <si>
-    <t>兆丰股份</t>
-  </si>
-  <si>
-    <t>轮胎轮毂</t>
-  </si>
-  <si>
-    <t>汽配</t>
-  </si>
-  <si>
-    <t>国科军工</t>
-  </si>
-  <si>
-    <t>万里马</t>
-  </si>
-  <si>
-    <t>鞋帽及其他</t>
-  </si>
-  <si>
-    <t>正元智慧</t>
-  </si>
-  <si>
-    <t>满坤科技</t>
-  </si>
-  <si>
-    <t>PCB</t>
-  </si>
-  <si>
-    <t>天山电子</t>
-  </si>
-  <si>
-    <t>面板</t>
-  </si>
-  <si>
-    <t>消费电子</t>
-  </si>
-  <si>
-    <t>德福科技</t>
-  </si>
-  <si>
-    <t>锂电池</t>
-  </si>
-  <si>
-    <t>固态-铜箔</t>
-  </si>
-  <si>
-    <t>北陆药业</t>
-  </si>
-  <si>
-    <t>脑机</t>
-  </si>
-  <si>
-    <t>波长光电</t>
-  </si>
-  <si>
-    <t>光学元件</t>
-  </si>
-  <si>
-    <t>科翔股份</t>
-  </si>
-  <si>
-    <t>固态电池+PCB</t>
-  </si>
-  <si>
-    <t>逸豪新材</t>
-  </si>
-  <si>
-    <t>华峰超纤</t>
-  </si>
-  <si>
-    <t>合成革</t>
-  </si>
-  <si>
-    <t>优博讯</t>
-  </si>
-  <si>
-    <t>新国都</t>
-  </si>
-  <si>
-    <t>晨曦航空</t>
-  </si>
-  <si>
-    <t>金银河</t>
-  </si>
-  <si>
-    <t>锂电设备</t>
-  </si>
-  <si>
-    <t>爱朋医疗</t>
-  </si>
-  <si>
-    <t>医疗设备</t>
-  </si>
-  <si>
-    <t>利元亨</t>
-  </si>
-  <si>
-    <t>朗新集团</t>
-  </si>
-  <si>
-    <t>天阳科技</t>
-  </si>
-  <si>
-    <t>其他云服务</t>
-  </si>
-  <si>
-    <t>信宇人</t>
-  </si>
-  <si>
-    <t>科恒股份</t>
-  </si>
-  <si>
-    <t>赛升药业</t>
-  </si>
-  <si>
-    <t>抗体</t>
-  </si>
-  <si>
-    <t>圣诺生物</t>
-  </si>
-  <si>
-    <t>其他生物制药</t>
-  </si>
-  <si>
-    <t>拉卡拉</t>
-  </si>
-  <si>
-    <t>其他金融服务</t>
-  </si>
-  <si>
-    <t>四方精创</t>
-  </si>
-  <si>
-    <t>舒泰神</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1322,44 +1325,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1895,8 +1922,8 @@
   <sheetPr/>
   <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:T1"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="R68" sqref="R68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1929,7 +1956,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1947,7 +1974,7 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -1985,13 +2012,19 @@
       <c r="G2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13" t="s">
+      <c r="H2" s="6">
+        <v>-4.96</v>
+      </c>
+      <c r="I2" s="6">
+        <v>7.49</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="6">
         <v>1</v>
       </c>
@@ -2004,3930 +2037,4704 @@
       <c r="P2" s="6">
         <v>-1.71</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
+      <c r="S2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5">
         <v>45840</v>
       </c>
       <c r="C3" s="6">
-        <v>300095</v>
+        <v>300016</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="6">
-        <v>3.61</v>
+        <v>-2.02</v>
       </c>
       <c r="F3" s="6">
-        <v>10.33</v>
+        <v>9.71</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13" t="s">
+      <c r="H3" s="6">
+        <v>1.24</v>
+      </c>
+      <c r="I3" s="6">
+        <v>9.98</v>
+      </c>
+      <c r="J3" s="11">
+        <v>2.78</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N3" s="6">
-        <v>20312717</v>
+        <v>-14478064</v>
       </c>
       <c r="O3" s="6">
-        <v>-22252765</v>
-      </c>
-      <c r="P3" s="14">
-        <v>0.57</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+        <v>-24309325</v>
+      </c>
+      <c r="P3" s="6">
+        <v>-0.31</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>45840</v>
       </c>
       <c r="C4" s="6">
-        <v>300121</v>
+        <v>300046</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-7.63</v>
+      </c>
+      <c r="F4" s="6">
+        <v>42.4</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="6">
-        <v>-2.02</v>
-      </c>
-      <c r="F4" s="6">
-        <v>15.03</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="6">
+        <v>-1.42</v>
+      </c>
+      <c r="I4" s="6">
+        <v>42.79</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="13"/>
       <c r="M4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" s="6">
-        <v>-5765600</v>
+        <v>-157457170</v>
       </c>
       <c r="O4" s="6">
-        <v>-102936361</v>
+        <v>-191910450</v>
       </c>
       <c r="P4" s="6">
-        <v>-0.1</v>
-      </c>
-      <c r="Q4" s="13" t="s">
+        <v>-1.54</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="S4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5">
         <v>45840</v>
       </c>
       <c r="C5" s="6">
-        <v>300196</v>
+        <v>300092</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-2.24</v>
+      </c>
+      <c r="F5" s="6">
+        <v>13.96</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="6">
-        <v>-5.74</v>
-      </c>
-      <c r="F5" s="6">
-        <v>13.8</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="6">
+        <v>-1.29</v>
+      </c>
+      <c r="I5" s="6">
+        <v>14.05</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="8"/>
+      <c r="L5" s="13"/>
       <c r="M5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" s="6">
-        <v>-48973271</v>
+        <v>-2639915</v>
       </c>
       <c r="O5" s="6">
-        <v>-118951804</v>
+        <v>-56655260</v>
       </c>
       <c r="P5" s="6">
-        <v>-1.41</v>
-      </c>
-      <c r="Q5" s="13" t="s">
+        <v>-0.09</v>
+      </c>
+      <c r="Q5" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
+      <c r="S5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5">
         <v>45840</v>
       </c>
       <c r="C6" s="6">
-        <v>300199</v>
+        <v>300095</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3.61</v>
+      </c>
+      <c r="F6" s="6">
+        <v>10.33</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-4.74</v>
+      </c>
+      <c r="I6" s="6">
+        <v>10.39</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.58</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6">
-        <v>1.39</v>
-      </c>
-      <c r="F6" s="6">
-        <v>17.49</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="8"/>
+      <c r="L6" s="13"/>
       <c r="M6" s="6">
         <v>1</v>
       </c>
       <c r="N6" s="6">
-        <v>-104504900</v>
+        <v>20312717</v>
       </c>
       <c r="O6" s="6">
-        <v>-76055100</v>
-      </c>
-      <c r="P6" s="6">
-        <v>-0.84</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
+        <v>-22252765</v>
+      </c>
+      <c r="P6" s="14">
+        <v>0.57</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5">
         <v>45840</v>
       </c>
       <c r="C7" s="6">
-        <v>300452</v>
+        <v>300121</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-2.02</v>
+      </c>
+      <c r="F7" s="6">
+        <v>15.03</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="6">
-        <v>-4.62</v>
-      </c>
-      <c r="F7" s="6">
-        <v>14.04</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="6">
+        <v>-2.26</v>
+      </c>
+      <c r="I7" s="6">
+        <v>14.99</v>
+      </c>
+      <c r="J7" s="11">
+        <v>-0.27</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="6">
         <v>1</v>
       </c>
       <c r="N7" s="6">
-        <v>-72246781</v>
+        <v>-5765600</v>
       </c>
       <c r="O7" s="6">
-        <v>-146675298</v>
+        <v>-102936361</v>
       </c>
       <c r="P7" s="6">
-        <v>-2.69</v>
-      </c>
-      <c r="Q7" s="13" t="s">
+        <v>-0.1</v>
+      </c>
+      <c r="Q7" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
+      <c r="S7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="4">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>45840</v>
       </c>
       <c r="C8" s="6">
-        <v>300665</v>
+        <v>300130</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-3.19</v>
+      </c>
+      <c r="F8" s="6">
+        <v>31.89</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="6">
-        <v>4.59</v>
-      </c>
-      <c r="F8" s="6">
-        <v>10.49</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="I8" s="6">
+        <v>32.31</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1.32</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="13"/>
       <c r="M8" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N8" s="6">
-        <v>-42571830</v>
+        <v>-159647680</v>
       </c>
       <c r="O8" s="6">
-        <v>-87444628</v>
+        <v>8919950</v>
       </c>
       <c r="P8" s="6">
-        <v>-2.82</v>
-      </c>
-      <c r="Q8" s="13" t="s">
+        <v>-1.15</v>
+      </c>
+      <c r="Q8" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="15"/>
-      <c r="T8" s="16"/>
+      <c r="S8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="4">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5">
         <v>45840</v>
       </c>
       <c r="C9" s="6">
-        <v>300810</v>
+        <v>300157</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5.15</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="6">
-        <v>10.15</v>
-      </c>
-      <c r="F9" s="6">
-        <v>55</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="8"/>
+      <c r="H9" s="6">
+        <v>-2.14</v>
+      </c>
+      <c r="I9" s="6">
+        <v>5.17</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="13"/>
       <c r="M9" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9" s="6">
-        <v>-148136690</v>
+        <v>7113523</v>
       </c>
       <c r="O9" s="6">
-        <v>26106400</v>
+        <v>-8977966</v>
       </c>
       <c r="P9" s="6">
-        <v>-2.39</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
+        <v>0.19</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="4">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5">
         <v>45840</v>
       </c>
       <c r="C10" s="6">
-        <v>301007</v>
+        <v>300180</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-1.12</v>
+      </c>
+      <c r="F10" s="6">
+        <v>8.82</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="6">
-        <v>-3.74</v>
-      </c>
-      <c r="F10" s="6">
-        <v>29.33</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="8"/>
+      <c r="H10" s="6">
+        <v>-0.79</v>
+      </c>
+      <c r="I10" s="6">
+        <v>8.89</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="13"/>
       <c r="M10" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N10" s="6">
-        <v>-11896584</v>
+        <v>-13570452</v>
       </c>
       <c r="O10" s="6">
-        <v>-22049411</v>
+        <v>-107052322</v>
       </c>
       <c r="P10" s="6">
-        <v>-0.27</v>
-      </c>
-      <c r="Q10" s="13" t="s">
+        <v>-0.11</v>
+      </c>
+      <c r="Q10" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
+      <c r="S10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="4">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>45840</v>
       </c>
       <c r="C11" s="6">
-        <v>301205</v>
+        <v>300196</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="6">
+        <v>-5.74</v>
+      </c>
+      <c r="F11" s="6">
+        <v>13.8</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="I11" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="J11" s="11">
+        <v>2.17</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="6">
-        <v>1.43</v>
-      </c>
-      <c r="F11" s="6">
-        <v>97.43</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="8"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="6">
         <v>1</v>
       </c>
       <c r="N11" s="6">
-        <v>-37794329</v>
+        <v>-48973271</v>
       </c>
       <c r="O11" s="6">
-        <v>-15281897</v>
+        <v>-118951804</v>
       </c>
       <c r="P11" s="6">
-        <v>-0.58</v>
-      </c>
-      <c r="Q11" s="13" t="s">
+        <v>-1.41</v>
+      </c>
+      <c r="Q11" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
+      <c r="S11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="4">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5">
         <v>45840</v>
       </c>
       <c r="C12" s="6">
-        <v>688084</v>
+        <v>300199</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="6">
-        <v>6.21</v>
+        <v>1.39</v>
       </c>
       <c r="F12" s="6">
-        <v>95.94</v>
+        <v>17.49</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="H12" s="6">
+        <v>3.95</v>
+      </c>
+      <c r="I12" s="6">
+        <v>18.36</v>
+      </c>
+      <c r="J12" s="11">
+        <v>4.97</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="13"/>
       <c r="M12" s="6">
         <v>1</v>
       </c>
       <c r="N12" s="6">
-        <v>8014389</v>
+        <v>-104504900</v>
       </c>
       <c r="O12" s="6">
-        <v>4988025</v>
+        <v>-76055100</v>
       </c>
       <c r="P12" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="S12" s="15"/>
-      <c r="T12" s="16"/>
+        <v>-0.84</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="4">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5">
         <v>45840</v>
       </c>
       <c r="C13" s="6">
-        <v>300046</v>
+        <v>300204</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E13" s="6">
-        <v>-7.63</v>
+        <v>-5.05</v>
       </c>
       <c r="F13" s="6">
-        <v>42.4</v>
+        <v>40.83</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="H13" s="6">
+        <v>9.33</v>
+      </c>
+      <c r="I13" s="6">
+        <v>46</v>
+      </c>
+      <c r="J13" s="11">
+        <v>12.66</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="13"/>
       <c r="M13" s="6">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="N13" s="6">
-        <v>-157457170</v>
+        <v>-36848739</v>
       </c>
       <c r="O13" s="6">
-        <v>-191910450</v>
+        <v>-188003395</v>
       </c>
       <c r="P13" s="6">
-        <v>-1.54</v>
-      </c>
-      <c r="Q13" s="13" t="s">
+        <v>-0.18</v>
+      </c>
+      <c r="Q13" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
+      <c r="S13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="4">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5">
         <v>45840</v>
       </c>
       <c r="C14" s="6">
-        <v>300092</v>
+        <v>300269</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E14" s="6">
-        <v>-2.24</v>
+        <v>0.67</v>
       </c>
       <c r="F14" s="6">
-        <v>13.96</v>
+        <v>6</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="H14" s="6">
+        <v>-3.67</v>
+      </c>
+      <c r="I14" s="6">
+        <v>6.16</v>
+      </c>
+      <c r="J14" s="11">
+        <v>2.67</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="13"/>
       <c r="M14" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" s="6">
-        <v>-2639915</v>
+        <v>30084164</v>
       </c>
       <c r="O14" s="6">
-        <v>-56655260</v>
-      </c>
-      <c r="P14" s="6">
-        <v>-0.09</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
+        <v>1213935</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45840</v>
+      </c>
+      <c r="C15" s="6">
+        <v>300340</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="6">
+        <v>-3.73</v>
+      </c>
+      <c r="F15" s="6">
+        <v>18.84</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="6">
+        <v>6.69</v>
+      </c>
+      <c r="I15" s="6">
+        <v>20.3</v>
+      </c>
+      <c r="J15" s="11">
+        <v>7.75</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="6">
         <v>17</v>
       </c>
-      <c r="B15" s="5">
-        <v>45840</v>
-      </c>
-      <c r="C15" s="6">
-        <v>300429</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="6">
-        <v>-2.61</v>
-      </c>
-      <c r="F15" s="6">
-        <v>14.55</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="6">
-        <v>2</v>
-      </c>
       <c r="N15" s="6">
-        <v>-52534704</v>
+        <v>-52480210</v>
       </c>
       <c r="O15" s="6">
-        <v>-119935352</v>
+        <v>-113213519</v>
       </c>
       <c r="P15" s="6">
-        <v>-0.9</v>
-      </c>
-      <c r="Q15" s="13" t="s">
+        <v>-1.02</v>
+      </c>
+      <c r="Q15" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S15" s="15"/>
-      <c r="T15" s="16"/>
+      <c r="S15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="4">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5">
         <v>45840</v>
       </c>
       <c r="C16" s="6">
-        <v>300527</v>
+        <v>300386</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E16" s="6">
-        <v>13.14</v>
+        <v>-3.36</v>
       </c>
       <c r="F16" s="6">
-        <v>12.4</v>
+        <v>20.97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="H16" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>21.14</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="13"/>
       <c r="M16" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N16" s="6">
-        <v>-287307150</v>
+        <v>-66621090</v>
       </c>
       <c r="O16" s="6">
-        <v>63592860</v>
+        <v>-59922875</v>
       </c>
       <c r="P16" s="6">
-        <v>-2.47</v>
-      </c>
-      <c r="Q16" s="13" t="s">
+        <v>-1.27</v>
+      </c>
+      <c r="Q16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
+      <c r="S16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="4">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5">
         <v>45840</v>
       </c>
       <c r="C17" s="6">
-        <v>300568</v>
+        <v>300414</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E17" s="6">
-        <v>-1.68</v>
+        <v>-8.77</v>
       </c>
       <c r="F17" s="6">
-        <v>12.3</v>
+        <v>13.01</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="H17" s="6">
+        <v>-2.38</v>
+      </c>
+      <c r="I17" s="6">
+        <v>13.12</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="13"/>
       <c r="M17" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" s="6">
-        <v>22707590</v>
+        <v>-46430388</v>
       </c>
       <c r="O17" s="6">
-        <v>-78041108</v>
+        <v>-183362761</v>
       </c>
       <c r="P17" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
+        <v>-1.12</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="4">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>45840</v>
       </c>
       <c r="C18" s="6">
-        <v>300589</v>
+        <v>300429</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E18" s="6">
-        <v>-0.19</v>
+        <v>-2.61</v>
       </c>
       <c r="F18" s="6">
-        <v>15.89</v>
+        <v>14.55</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="L18" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="H18" s="6">
+        <v>-1.72</v>
+      </c>
+      <c r="I18" s="6">
+        <v>14.48</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-0.48</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="13"/>
       <c r="M18" s="6">
         <v>2</v>
       </c>
       <c r="N18" s="6">
-        <v>-56943221</v>
+        <v>-52534704</v>
       </c>
       <c r="O18" s="6">
-        <v>-80048768</v>
+        <v>-119935352</v>
       </c>
       <c r="P18" s="6">
-        <v>-1.48</v>
-      </c>
-      <c r="Q18" s="13" t="s">
+        <v>-0.9</v>
+      </c>
+      <c r="Q18" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
+      <c r="S18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T18" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="4">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5">
         <v>45840</v>
       </c>
       <c r="C19" s="6">
-        <v>300697</v>
+        <v>300452</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E19" s="6">
-        <v>4.91</v>
+        <v>-4.62</v>
       </c>
       <c r="F19" s="6">
-        <v>16.46</v>
+        <v>14.04</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L19" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="H19" s="6">
+        <v>8.26</v>
+      </c>
+      <c r="I19" s="6">
+        <v>15.93</v>
+      </c>
+      <c r="J19" s="11">
+        <v>13.46</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="13"/>
       <c r="M19" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" s="6">
-        <v>25603467</v>
+        <v>-72246781</v>
       </c>
       <c r="O19" s="6">
-        <v>77487032</v>
-      </c>
-      <c r="P19" s="14">
-        <v>0.47</v>
-      </c>
-      <c r="Q19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="S19" s="15"/>
-      <c r="T19" s="16"/>
+        <v>-146675298</v>
+      </c>
+      <c r="P19" s="6">
+        <v>-2.69</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45840</v>
+      </c>
+      <c r="C20" s="6">
+        <v>300468</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="6">
+        <v>-3.44</v>
+      </c>
+      <c r="F20" s="6">
+        <v>44.1</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="I20" s="6">
+        <v>44.95</v>
+      </c>
+      <c r="J20" s="11">
+        <v>1.93</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="5">
-        <v>45840</v>
-      </c>
-      <c r="C20" s="6">
-        <v>300767</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="6">
-        <v>-5.71</v>
-      </c>
-      <c r="F20" s="6">
-        <v>13.38</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="8"/>
+      <c r="L20" s="13"/>
       <c r="M20" s="6">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N20" s="6">
-        <v>-22037583</v>
+        <v>-354290000</v>
       </c>
       <c r="O20" s="6">
-        <v>-80161188</v>
+        <v>131212870</v>
       </c>
       <c r="P20" s="6">
-        <v>-0.68</v>
-      </c>
-      <c r="Q20" s="13" t="s">
+        <v>-1.49</v>
+      </c>
+      <c r="Q20" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S20" s="15"/>
-      <c r="T20" s="16"/>
+      <c r="S20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T20" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45840</v>
+      </c>
+      <c r="C21" s="6">
+        <v>300485</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="6">
+        <v>-1.3</v>
+      </c>
+      <c r="F21" s="6">
+        <v>13.69</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="6">
+        <v>10.45</v>
+      </c>
+      <c r="I21" s="6">
+        <v>16.22</v>
+      </c>
+      <c r="J21" s="11">
+        <v>18.48</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="5">
-        <v>45840</v>
-      </c>
-      <c r="C21" s="6">
-        <v>300965</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="6">
-        <v>-10.38</v>
-      </c>
-      <c r="F21" s="6">
-        <v>58.9</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L21" s="8"/>
+      <c r="L21" s="13"/>
       <c r="M21" s="6">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N21" s="6">
-        <v>1745597</v>
+        <v>-30311253</v>
       </c>
       <c r="O21" s="6">
-        <v>-19176631</v>
+        <v>-22916326</v>
       </c>
       <c r="P21" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
+        <v>-0.81</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="4">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5">
         <v>45840</v>
       </c>
       <c r="C22" s="6">
-        <v>300971</v>
+        <v>300515</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E22" s="6">
-        <v>6.06</v>
+        <v>14.8</v>
       </c>
       <c r="F22" s="6">
-        <v>24.5</v>
+        <v>27</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="L22" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="H22" s="6">
+        <v>-4.89</v>
+      </c>
+      <c r="I22" s="6">
+        <v>26.99</v>
+      </c>
+      <c r="J22" s="11">
+        <v>-0.04</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="13"/>
       <c r="M22" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N22" s="6">
-        <v>-16768308</v>
+        <v>13901665</v>
       </c>
       <c r="O22" s="6">
-        <v>7075508</v>
-      </c>
-      <c r="P22" s="6">
-        <v>-0.72</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>23</v>
+        <v>81828230</v>
+      </c>
+      <c r="P22" s="14">
+        <v>0.34</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="R22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
+      <c r="S22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T22" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="4">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5">
         <v>45840</v>
       </c>
       <c r="C23" s="6">
-        <v>301024</v>
+        <v>300527</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E23" s="6">
-        <v>-7.49</v>
+        <v>13.14</v>
       </c>
       <c r="F23" s="6">
-        <v>48.92</v>
+        <v>12.4</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L23" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="H23" s="6">
+        <v>-10.48</v>
+      </c>
+      <c r="I23" s="6">
+        <v>12.15</v>
+      </c>
+      <c r="J23" s="11">
+        <v>-2.02</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" s="13"/>
       <c r="M23" s="6">
         <v>2</v>
       </c>
       <c r="N23" s="6">
-        <v>-4328659</v>
+        <v>-287307150</v>
       </c>
       <c r="O23" s="6">
-        <v>-34090475</v>
+        <v>63592860</v>
       </c>
       <c r="P23" s="6">
-        <v>-0.17</v>
-      </c>
-      <c r="Q23" s="13" t="s">
+        <v>-2.47</v>
+      </c>
+      <c r="Q23" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
+      <c r="S23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="4">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5">
         <v>45840</v>
       </c>
       <c r="C24" s="6">
-        <v>301125</v>
+        <v>300531</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E24" s="6">
-        <v>-2.24</v>
+        <v>-3.66</v>
       </c>
       <c r="F24" s="6">
-        <v>16.56</v>
+        <v>20.79</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="L24" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="I24" s="6">
+        <v>20.98</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="13"/>
       <c r="M24" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N24" s="6">
-        <v>22403758</v>
+        <v>-83770643</v>
       </c>
       <c r="O24" s="6">
-        <v>-40345528</v>
-      </c>
-      <c r="P24" s="14">
-        <v>1.14</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
+        <v>-34021896</v>
+      </c>
+      <c r="P24" s="6">
+        <v>-1.3</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="4">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5">
         <v>45840</v>
       </c>
       <c r="C25" s="6">
-        <v>301345</v>
+        <v>300533</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E25" s="6">
-        <v>3.55</v>
+        <v>-1.08</v>
       </c>
       <c r="F25" s="6">
-        <v>128.4</v>
+        <v>33.05</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="L25" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="H25" s="6">
+        <v>-1.48</v>
+      </c>
+      <c r="I25" s="6">
+        <v>34.5</v>
+      </c>
+      <c r="J25" s="11">
+        <v>4.39</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="13"/>
       <c r="M25" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N25" s="6">
-        <v>64602264</v>
+        <v>3815991</v>
       </c>
       <c r="O25" s="6">
-        <v>357465</v>
-      </c>
-      <c r="P25" s="14">
-        <v>1.74</v>
-      </c>
-      <c r="Q25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="R25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
+        <v>-52488813</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0.07</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="4">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5">
         <v>45840</v>
       </c>
       <c r="C26" s="6">
-        <v>301408</v>
+        <v>300537</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E26" s="6">
-        <v>-8.72</v>
+        <v>3.77</v>
       </c>
       <c r="F26" s="6">
-        <v>14.35</v>
+        <v>28.65</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="H26" s="6">
+        <v>-11.41</v>
+      </c>
+      <c r="I26" s="6">
+        <v>27.87</v>
+      </c>
+      <c r="J26" s="11">
+        <v>-2.72</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="13"/>
       <c r="M26" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26" s="6">
-        <v>-56601007</v>
+        <v>-28655434</v>
       </c>
       <c r="O26" s="6">
-        <v>-88081066</v>
+        <v>-13531411</v>
       </c>
       <c r="P26" s="6">
-        <v>-2.63</v>
-      </c>
-      <c r="Q26" s="13" t="s">
-        <v>23</v>
+        <v>-0.71</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="R26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S26" s="15"/>
-      <c r="T26" s="16"/>
+      <c r="S26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="4">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5">
         <v>45840</v>
       </c>
       <c r="C27" s="6">
-        <v>300157</v>
+        <v>300568</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="E27" s="6">
+        <v>-1.68</v>
       </c>
       <c r="F27" s="6">
-        <v>5.15</v>
+        <v>12.3</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="H27" s="6">
+        <v>2.44</v>
+      </c>
+      <c r="I27" s="6">
+        <v>12.79</v>
+      </c>
+      <c r="J27" s="11">
+        <v>3.98</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="13"/>
       <c r="M27" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N27" s="6">
-        <v>7113523</v>
+        <v>22707590</v>
       </c>
       <c r="O27" s="6">
-        <v>-8977966</v>
+        <v>-78041108</v>
       </c>
       <c r="P27" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="Q27" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="Q27" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="S27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="4">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5">
         <v>45840</v>
       </c>
       <c r="C28" s="6">
-        <v>300269</v>
+        <v>300581</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E28" s="6">
-        <v>0.67</v>
+        <v>-6.78</v>
       </c>
       <c r="F28" s="6">
-        <v>6</v>
+        <v>19.53</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L28" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1.43</v>
+      </c>
+      <c r="I28" s="6">
+        <v>20.98</v>
+      </c>
+      <c r="J28" s="11">
+        <v>7.42</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="13"/>
       <c r="M28" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N28" s="6">
-        <v>30084164</v>
+        <v>-89853575</v>
       </c>
       <c r="O28" s="6">
-        <v>1213935</v>
-      </c>
-      <c r="P28" s="14">
-        <v>0.93</v>
-      </c>
-      <c r="Q28" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R28" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
+        <v>-106755805</v>
+      </c>
+      <c r="P28" s="6">
+        <v>-0.83</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T28" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B29" s="5">
         <v>45840</v>
       </c>
       <c r="C29" s="6">
-        <v>300537</v>
+        <v>300589</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E29" s="6">
-        <v>3.77</v>
+        <v>-0.19</v>
       </c>
       <c r="F29" s="6">
-        <v>28.65</v>
+        <v>15.89</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L29" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H29" s="6">
+        <v>-5.54</v>
+      </c>
+      <c r="I29" s="6">
+        <v>15.94</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="13"/>
       <c r="M29" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" s="6">
-        <v>-28655434</v>
+        <v>-56943221</v>
       </c>
       <c r="O29" s="6">
-        <v>-13531411</v>
+        <v>-80048768</v>
       </c>
       <c r="P29" s="6">
-        <v>-0.71</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>27</v>
+        <v>-1.48</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="R29" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
+      <c r="S29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T29" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="4">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B30" s="5">
         <v>45840</v>
       </c>
       <c r="C30" s="6">
-        <v>300747</v>
+        <v>300591</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E30" s="6">
-        <v>-1.83</v>
+        <v>2.5</v>
       </c>
       <c r="F30" s="6">
-        <v>23.59</v>
+        <v>10.66</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="L30" s="8"/>
+        <v>89</v>
+      </c>
+      <c r="H30" s="6">
+        <v>8.54</v>
+      </c>
+      <c r="I30" s="6">
+        <v>11.64</v>
+      </c>
+      <c r="J30" s="11">
+        <v>9.19</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="13"/>
       <c r="M30" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N30" s="6">
-        <v>-44092231</v>
+        <v>62067273</v>
       </c>
       <c r="O30" s="6">
-        <v>-42001768</v>
-      </c>
-      <c r="P30" s="6">
-        <v>-0.37</v>
-      </c>
-      <c r="Q30" s="13" t="s">
+        <v>121987390</v>
+      </c>
+      <c r="P30" s="14">
+        <v>1.65</v>
+      </c>
+      <c r="Q30" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R30" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
+      <c r="S30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T30" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="4">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B31" s="5">
         <v>45840</v>
       </c>
       <c r="C31" s="6">
-        <v>300875</v>
+        <v>300600</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E31" s="6">
-        <v>-4.56</v>
+        <v>-6.42</v>
       </c>
       <c r="F31" s="6">
-        <v>44.8</v>
+        <v>14.71</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="6">
+        <v>-3.74</v>
+      </c>
+      <c r="I31" s="6">
+        <v>15.09</v>
+      </c>
+      <c r="J31" s="11">
+        <v>2.58</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L31" s="8"/>
+      <c r="L31" s="13"/>
       <c r="M31" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31" s="6">
-        <v>-27155071</v>
+        <v>-14310613</v>
       </c>
       <c r="O31" s="6">
-        <v>-79218316</v>
+        <v>-132718598</v>
       </c>
       <c r="P31" s="6">
-        <v>-0.68</v>
-      </c>
-      <c r="Q31" s="13" t="s">
+        <v>-0.38</v>
+      </c>
+      <c r="Q31" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
+      <c r="S31" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T31" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="4">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B32" s="5">
         <v>45840</v>
       </c>
       <c r="C32" s="6">
-        <v>300947</v>
+        <v>300619</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E32" s="6">
-        <v>-1.91</v>
+        <v>0.58</v>
       </c>
       <c r="F32" s="6">
-        <v>24.7</v>
+        <v>27.69</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="L32" s="8"/>
+        <v>92</v>
+      </c>
+      <c r="H32" s="6">
+        <v>4.08</v>
+      </c>
+      <c r="I32" s="6">
+        <v>29.21</v>
+      </c>
+      <c r="J32" s="11">
+        <v>5.49</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="13"/>
       <c r="M32" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N32" s="6">
-        <v>-868287</v>
+        <v>20267670</v>
       </c>
       <c r="O32" s="6">
-        <v>-54815351</v>
-      </c>
-      <c r="P32" s="6">
-        <v>-0.03</v>
-      </c>
-      <c r="Q32" s="13" t="s">
+        <v>-22994397</v>
+      </c>
+      <c r="P32" s="14">
+        <v>0.49</v>
+      </c>
+      <c r="Q32" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R32" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
+      <c r="S32" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T32" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="4">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B33" s="5">
         <v>45840</v>
       </c>
       <c r="C33" s="6">
-        <v>300991</v>
+        <v>300645</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E33" s="6">
-        <v>-3.95</v>
+        <v>-3.1</v>
       </c>
       <c r="F33" s="6">
-        <v>29.87</v>
+        <v>18.78</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="L33" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="H33" s="6">
+        <v>9.96</v>
+      </c>
+      <c r="I33" s="6">
+        <v>21.77</v>
+      </c>
+      <c r="J33" s="11">
+        <v>15.92</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="13"/>
       <c r="M33" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N33" s="6">
-        <v>12732151</v>
+        <v>-27791648</v>
       </c>
       <c r="O33" s="6">
-        <v>-60360835</v>
-      </c>
-      <c r="P33" s="14">
-        <v>0.49</v>
-      </c>
-      <c r="Q33" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
+        <v>-5772023</v>
+      </c>
+      <c r="P33" s="6">
+        <v>-1.06</v>
+      </c>
+      <c r="Q33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T33" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="4">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B34" s="5">
         <v>45840</v>
       </c>
       <c r="C34" s="6">
-        <v>300993</v>
+        <v>300649</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E34" s="6">
-        <v>8.92</v>
+        <v>-10.43</v>
       </c>
       <c r="F34" s="6">
-        <v>16.24</v>
+        <v>16.41</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="L34" s="8"/>
+        <v>95</v>
+      </c>
+      <c r="H34" s="6">
+        <v>6.03</v>
+      </c>
+      <c r="I34" s="6">
+        <v>17.59</v>
+      </c>
+      <c r="J34" s="11">
+        <v>7.19</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L34" s="13"/>
       <c r="M34" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" s="6">
-        <v>45339182</v>
+        <v>-19406769</v>
       </c>
       <c r="O34" s="6">
-        <v>424437</v>
-      </c>
-      <c r="P34" s="14">
-        <v>1.19</v>
-      </c>
-      <c r="Q34" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="R34" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="S34" s="15"/>
-      <c r="T34" s="16"/>
+        <v>-37852040</v>
+      </c>
+      <c r="P34" s="6">
+        <v>-1.11</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S34" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T34" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="4">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B35" s="5">
         <v>45840</v>
       </c>
       <c r="C35" s="6">
-        <v>301137</v>
+        <v>300665</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E35" s="6">
-        <v>6.56</v>
+        <v>4.59</v>
       </c>
       <c r="F35" s="6">
-        <v>39.98</v>
+        <v>10.49</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="L35" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="H35" s="6">
+        <v>-12.3</v>
+      </c>
+      <c r="I35" s="6">
+        <v>10.07</v>
+      </c>
+      <c r="J35" s="11">
+        <v>-4</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L35" s="13"/>
       <c r="M35" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35" s="6">
-        <v>24422633</v>
+        <v>-42571830</v>
       </c>
       <c r="O35" s="6">
-        <v>92764613</v>
-      </c>
-      <c r="P35" s="14">
-        <v>0.59</v>
-      </c>
-      <c r="Q35" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="R35" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
+        <v>-87444628</v>
+      </c>
+      <c r="P35" s="6">
+        <v>-2.82</v>
+      </c>
+      <c r="Q35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R35" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T35" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="4">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B36" s="5">
         <v>45840</v>
       </c>
       <c r="C36" s="6">
-        <v>301213</v>
+        <v>300682</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E36" s="6">
-        <v>-3.84</v>
+        <v>-6.65</v>
       </c>
       <c r="F36" s="6">
-        <v>58.8</v>
+        <v>21.34</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I36" s="6">
+        <v>21.84</v>
+      </c>
+      <c r="J36" s="11">
+        <v>2.34</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" s="13"/>
       <c r="M36" s="6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N36" s="6">
-        <v>6960438</v>
+        <v>-174577630</v>
       </c>
       <c r="O36" s="6">
-        <v>-28549074</v>
+        <v>-84711118</v>
       </c>
       <c r="P36" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="Q36" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R36" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
+        <v>-0.78</v>
+      </c>
+      <c r="Q36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R36" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S36" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T36" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="4">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B37" s="5">
         <v>45840</v>
       </c>
       <c r="C37" s="6">
-        <v>688151</v>
+        <v>300695</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E37" s="6">
-        <v>-6.87</v>
+        <v>6.92</v>
       </c>
       <c r="F37" s="6">
-        <v>25.91</v>
+        <v>89.28</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="H37" s="6">
+        <v>-2.17</v>
+      </c>
+      <c r="I37" s="6">
+        <v>93.5</v>
+      </c>
+      <c r="J37" s="11">
+        <v>4.73</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L37" s="13"/>
       <c r="M37" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N37" s="6">
-        <v>-18776048</v>
+        <v>33192685</v>
       </c>
       <c r="O37" s="6">
-        <v>-58618334</v>
-      </c>
-      <c r="P37" s="6">
-        <v>-0.21</v>
-      </c>
-      <c r="Q37" s="13" t="s">
-        <v>23</v>
+        <v>50234882</v>
+      </c>
+      <c r="P37" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="Q37" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="R37" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
+      <c r="S37" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T37" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="4">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B38" s="5">
         <v>45840</v>
       </c>
       <c r="C38" s="6">
-        <v>300414</v>
+        <v>300697</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E38" s="6">
-        <v>-8.77</v>
+        <v>4.91</v>
       </c>
       <c r="F38" s="6">
-        <v>13.01</v>
+        <v>16.46</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="H38" s="6">
+        <v>-2.61</v>
+      </c>
+      <c r="I38" s="6">
+        <v>17.51</v>
+      </c>
+      <c r="J38" s="11">
+        <v>6.38</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L38" s="13"/>
       <c r="M38" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N38" s="6">
-        <v>-46430388</v>
+        <v>25603467</v>
       </c>
       <c r="O38" s="6">
-        <v>-183362761</v>
-      </c>
-      <c r="P38" s="6">
-        <v>-1.12</v>
-      </c>
-      <c r="Q38" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R38" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
+        <v>77487032</v>
+      </c>
+      <c r="P38" s="14">
+        <v>0.47</v>
+      </c>
+      <c r="Q38" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R38" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S38" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T38" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="4">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B39" s="5">
         <v>45840</v>
       </c>
       <c r="C39" s="6">
-        <v>300600</v>
+        <v>300722</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E39" s="6">
-        <v>-6.42</v>
+        <v>-3.02</v>
       </c>
       <c r="F39" s="6">
-        <v>14.71</v>
+        <v>35.31</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" s="6">
+        <v>2.07</v>
+      </c>
+      <c r="I39" s="6">
+        <v>36.6</v>
+      </c>
+      <c r="J39" s="11">
+        <v>3.65</v>
+      </c>
+      <c r="K39" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L39" s="8"/>
+      <c r="L39" s="13"/>
       <c r="M39" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" s="6">
-        <v>-14310613</v>
+        <v>-39335849</v>
       </c>
       <c r="O39" s="6">
-        <v>-132718598</v>
+        <v>-58816018</v>
       </c>
       <c r="P39" s="6">
-        <v>-0.38</v>
-      </c>
-      <c r="Q39" s="13" t="s">
+        <v>-0.4</v>
+      </c>
+      <c r="Q39" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R39" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
+      <c r="S39" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="4">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B40" s="5">
         <v>45840</v>
       </c>
       <c r="C40" s="6">
-        <v>300649</v>
+        <v>300747</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E40" s="6">
-        <v>-10.43</v>
+        <v>-1.83</v>
       </c>
       <c r="F40" s="6">
-        <v>16.41</v>
+        <v>23.59</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="L40" s="8"/>
+        <v>110</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="I40" s="6">
+        <v>23.96</v>
+      </c>
+      <c r="J40" s="11">
+        <v>1.57</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L40" s="13"/>
       <c r="M40" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N40" s="6">
-        <v>-19406769</v>
+        <v>-44092231</v>
       </c>
       <c r="O40" s="6">
-        <v>-37852040</v>
+        <v>-42001768</v>
       </c>
       <c r="P40" s="6">
-        <v>-1.11</v>
-      </c>
-      <c r="Q40" s="13" t="s">
+        <v>-0.37</v>
+      </c>
+      <c r="Q40" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R40" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
+      <c r="S40" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T40" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="4">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" s="5">
         <v>45840</v>
       </c>
       <c r="C41" s="6">
-        <v>300803</v>
+        <v>300753</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E41" s="6">
-        <v>-1.01</v>
+        <v>-6.17</v>
       </c>
       <c r="F41" s="6">
-        <v>77.09</v>
+        <v>32.22</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="L41" s="8"/>
+        <v>113</v>
+      </c>
+      <c r="H41" s="6">
+        <v>-2.51</v>
+      </c>
+      <c r="I41" s="6">
+        <v>32.66</v>
+      </c>
+      <c r="J41" s="11">
+        <v>1.37</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L41" s="13"/>
       <c r="M41" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N41" s="6">
-        <v>-46679420</v>
+        <v>-24468843</v>
       </c>
       <c r="O41" s="6">
-        <v>-164945330</v>
+        <v>-84102370</v>
       </c>
       <c r="P41" s="6">
-        <v>-0.11</v>
-      </c>
-      <c r="Q41" s="13" t="s">
+        <v>-0.92</v>
+      </c>
+      <c r="Q41" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R41" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
+      <c r="S41" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T41" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="4">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B42" s="5">
         <v>45840</v>
       </c>
       <c r="C42" s="6">
-        <v>301141</v>
+        <v>300767</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E42" s="6">
-        <v>-1.41</v>
+        <v>-5.71</v>
       </c>
       <c r="F42" s="6">
-        <v>61.7</v>
+        <v>13.38</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="L42" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I42" s="6">
+        <v>13.59</v>
+      </c>
+      <c r="J42" s="11">
+        <v>1.57</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L42" s="13"/>
       <c r="M42" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N42" s="6">
-        <v>20149979</v>
+        <v>-22037583</v>
       </c>
       <c r="O42" s="6">
-        <v>-64665693</v>
-      </c>
-      <c r="P42" s="14">
-        <v>0.66</v>
-      </c>
-      <c r="Q42" s="16" t="s">
-        <v>27</v>
+        <v>-80161188</v>
+      </c>
+      <c r="P42" s="6">
+        <v>-0.68</v>
+      </c>
+      <c r="Q42" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="R42" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
+      <c r="S42" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T42" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="4">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B43" s="5">
         <v>45840</v>
       </c>
       <c r="C43" s="6">
-        <v>301197</v>
+        <v>300773</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E43" s="6">
-        <v>-4.95</v>
+        <v>-6.08</v>
       </c>
       <c r="F43" s="6">
-        <v>21.33</v>
+        <v>28.87</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="L43" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <v>29.1</v>
+      </c>
+      <c r="J43" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L43" s="13"/>
       <c r="M43" s="6">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N43" s="6">
-        <v>-7017313</v>
+        <v>-361027770</v>
       </c>
       <c r="O43" s="6">
-        <v>-35317135</v>
+        <v>62160580</v>
       </c>
       <c r="P43" s="6">
-        <v>-0.4</v>
-      </c>
-      <c r="Q43" s="13" t="s">
+        <v>-1.68</v>
+      </c>
+      <c r="Q43" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R43" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
+      <c r="S43" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T43" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="4">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B44" s="5">
         <v>45840</v>
       </c>
       <c r="C44" s="6">
-        <v>301312</v>
+        <v>300803</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E44" s="6">
-        <v>6.62</v>
+        <v>-1.01</v>
       </c>
       <c r="F44" s="6">
-        <v>44.78</v>
+        <v>77.09</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="L44" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="H44" s="6">
+        <v>-0.8</v>
+      </c>
+      <c r="I44" s="6">
+        <v>77.77</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L44" s="13"/>
       <c r="M44" s="6">
         <v>4</v>
       </c>
       <c r="N44" s="6">
-        <v>27048480</v>
+        <v>-46679420</v>
       </c>
       <c r="O44" s="6">
-        <v>-22643664</v>
-      </c>
-      <c r="P44" s="14">
-        <v>1.69</v>
-      </c>
-      <c r="Q44" s="16" t="s">
-        <v>27</v>
+        <v>-164945330</v>
+      </c>
+      <c r="P44" s="6">
+        <v>-0.11</v>
+      </c>
+      <c r="Q44" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="R44" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
+      <c r="S44" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T44" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="4">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B45" s="5">
         <v>45840</v>
       </c>
       <c r="C45" s="6">
-        <v>301319</v>
+        <v>300810</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E45" s="6">
-        <v>-8.65</v>
+        <v>10.15</v>
       </c>
       <c r="F45" s="6">
-        <v>30.82</v>
+        <v>55</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L45" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H45" s="6">
+        <v>-9.09</v>
+      </c>
+      <c r="I45" s="6">
+        <v>56.36</v>
+      </c>
+      <c r="J45" s="11">
+        <v>2.47</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L45" s="13"/>
       <c r="M45" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N45" s="6">
-        <v>-16632605</v>
+        <v>-148136690</v>
       </c>
       <c r="O45" s="6">
-        <v>-70387126</v>
+        <v>26106400</v>
       </c>
       <c r="P45" s="6">
-        <v>-0.97</v>
-      </c>
-      <c r="Q45" s="13" t="s">
+        <v>-2.39</v>
+      </c>
+      <c r="Q45" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R45" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S45" s="15"/>
-      <c r="T45" s="16"/>
+      <c r="S45" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T45" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="4">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B46" s="5">
         <v>45840</v>
       </c>
       <c r="C46" s="6">
-        <v>688591</v>
+        <v>300872</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E46" s="6">
-        <v>-4.17</v>
+        <v>-4.06</v>
       </c>
       <c r="F46" s="6">
-        <v>48.3</v>
+        <v>20.77</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L46" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="H46" s="6">
+        <v>-0.34</v>
+      </c>
+      <c r="I46" s="6">
+        <v>20.88</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L46" s="13"/>
       <c r="M46" s="6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N46" s="6">
-        <v>-50927527</v>
+        <v>-128048290</v>
       </c>
       <c r="O46" s="6">
-        <v>-81399853</v>
+        <v>-31441916</v>
       </c>
       <c r="P46" s="6">
-        <v>-0.63</v>
-      </c>
-      <c r="Q46" s="13" t="s">
+        <v>-1.56</v>
+      </c>
+      <c r="Q46" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R46" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S46" s="15"/>
-      <c r="T46" s="15"/>
+      <c r="S46" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T46" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="4">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B47" s="5">
         <v>45840</v>
       </c>
       <c r="C47" s="6">
-        <v>300722</v>
+        <v>300875</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E47" s="6">
-        <v>-3.02</v>
+        <v>-4.56</v>
       </c>
       <c r="F47" s="6">
-        <v>35.31</v>
+        <v>44.8</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" s="6">
+        <v>-2.54</v>
+      </c>
+      <c r="I47" s="6">
+        <v>46.95</v>
+      </c>
+      <c r="J47" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L47" s="8"/>
+      <c r="L47" s="13"/>
       <c r="M47" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N47" s="6">
-        <v>-39335849</v>
+        <v>-27155071</v>
       </c>
       <c r="O47" s="6">
-        <v>-58816018</v>
+        <v>-79218316</v>
       </c>
       <c r="P47" s="6">
-        <v>-0.4</v>
-      </c>
-      <c r="Q47" s="13" t="s">
+        <v>-0.68</v>
+      </c>
+      <c r="Q47" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R47" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S47" s="15"/>
-      <c r="T47" s="16"/>
+      <c r="S47" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T47" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="5">
         <v>45840</v>
       </c>
       <c r="C48" s="6">
-        <v>300922</v>
+        <v>300903</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E48" s="6">
-        <v>-3.46</v>
+        <v>-7.8</v>
       </c>
       <c r="F48" s="6">
-        <v>26.26</v>
+        <v>10.28</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L48" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="H48" s="6">
+        <v>4.77</v>
+      </c>
+      <c r="I48" s="6">
+        <v>10.87</v>
+      </c>
+      <c r="J48" s="11">
+        <v>5.74</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L48" s="13"/>
       <c r="M48" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N48" s="6">
-        <v>-3615384</v>
+        <v>-62545622</v>
       </c>
       <c r="O48" s="6">
-        <v>-50359239</v>
+        <v>-63484132</v>
       </c>
       <c r="P48" s="6">
-        <v>-0.11</v>
-      </c>
-      <c r="Q48" s="13" t="s">
+        <v>-1.85</v>
+      </c>
+      <c r="Q48" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R48" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
+      <c r="S48" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T48" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="4">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B49" s="5">
         <v>45840</v>
       </c>
       <c r="C49" s="6">
-        <v>301022</v>
+        <v>300922</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E49" s="6">
-        <v>1.42</v>
+        <v>-3.46</v>
       </c>
       <c r="F49" s="6">
-        <v>34.88</v>
+        <v>26.26</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="L49" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="I49" s="6">
+        <v>26.75</v>
+      </c>
+      <c r="J49" s="11">
+        <v>1.87</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="13"/>
       <c r="M49" s="6">
         <v>5</v>
       </c>
       <c r="N49" s="6">
-        <v>-1827848</v>
+        <v>-3615384</v>
       </c>
       <c r="O49" s="6">
-        <v>-20970563</v>
+        <v>-50359239</v>
       </c>
       <c r="P49" s="6">
-        <v>-0.1</v>
-      </c>
-      <c r="Q49" s="13" t="s">
+        <v>-0.11</v>
+      </c>
+      <c r="Q49" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R49" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
+      <c r="S49" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T49" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="4">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B50" s="5">
         <v>45840</v>
       </c>
       <c r="C50" s="6">
-        <v>300386</v>
+        <v>300947</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E50" s="6">
-        <v>-3.36</v>
+        <v>-1.91</v>
       </c>
       <c r="F50" s="6">
-        <v>20.97</v>
+        <v>24.7</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L50" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="H50" s="6">
+        <v>-2.31</v>
+      </c>
+      <c r="I50" s="6">
+        <v>24.59</v>
+      </c>
+      <c r="J50" s="11">
+        <v>-0.45</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L50" s="13"/>
       <c r="M50" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N50" s="6">
-        <v>-66621090</v>
+        <v>-868287</v>
       </c>
       <c r="O50" s="6">
-        <v>-59922875</v>
+        <v>-54815351</v>
       </c>
       <c r="P50" s="6">
-        <v>-1.27</v>
-      </c>
-      <c r="Q50" s="13" t="s">
+        <v>-0.03</v>
+      </c>
+      <c r="Q50" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R50" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S50" s="15"/>
-      <c r="T50" s="15"/>
+      <c r="S50" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T50" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="4">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B51" s="5">
         <v>45840</v>
       </c>
       <c r="C51" s="6">
-        <v>300515</v>
+        <v>300965</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E51" s="6">
-        <v>14.8</v>
+        <v>-10.38</v>
       </c>
       <c r="F51" s="6">
-        <v>27</v>
+        <v>58.9</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="L51" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="H51" s="6">
+        <v>-2.97</v>
+      </c>
+      <c r="I51" s="6">
+        <v>59.98</v>
+      </c>
+      <c r="J51" s="11">
+        <v>1.83</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L51" s="13"/>
       <c r="M51" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N51" s="6">
-        <v>13901665</v>
+        <v>1745597</v>
       </c>
       <c r="O51" s="6">
-        <v>81828230</v>
-      </c>
-      <c r="P51" s="14">
-        <v>0.34</v>
-      </c>
-      <c r="Q51" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="R51" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
+        <v>-19176631</v>
+      </c>
+      <c r="P51" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="Q51" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R51" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S51" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T51" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="4">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B52" s="5">
         <v>45840</v>
       </c>
       <c r="C52" s="6">
-        <v>300533</v>
+        <v>300971</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E52" s="6">
-        <v>-1.08</v>
+        <v>6.06</v>
       </c>
       <c r="F52" s="6">
-        <v>33.05</v>
+        <v>24.5</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="L52" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="H52" s="6">
+        <v>-4.65</v>
+      </c>
+      <c r="I52" s="6">
+        <v>25.08</v>
+      </c>
+      <c r="J52" s="11">
+        <v>2.37</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L52" s="13"/>
       <c r="M52" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N52" s="6">
-        <v>3815991</v>
+        <v>-16768308</v>
       </c>
       <c r="O52" s="6">
-        <v>-52488813</v>
+        <v>7075508</v>
       </c>
       <c r="P52" s="6">
-        <v>0.07</v>
-      </c>
-      <c r="Q52" s="13" t="s">
+        <v>-0.72</v>
+      </c>
+      <c r="Q52" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R52" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
+      <c r="S52" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T52" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="4">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B53" s="5">
         <v>45840</v>
       </c>
       <c r="C53" s="6">
-        <v>300695</v>
+        <v>300991</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E53" s="6">
-        <v>6.92</v>
+        <v>-3.95</v>
       </c>
       <c r="F53" s="6">
-        <v>89.28</v>
+        <v>29.87</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="L53" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="H53" s="6">
+        <v>6.29</v>
+      </c>
+      <c r="I53" s="6">
+        <v>32.51</v>
+      </c>
+      <c r="J53" s="11">
+        <v>8.84</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L53" s="13"/>
       <c r="M53" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N53" s="6">
-        <v>33192685</v>
+        <v>12732151</v>
       </c>
       <c r="O53" s="6">
-        <v>50234882</v>
+        <v>-60360835</v>
       </c>
       <c r="P53" s="14">
-        <v>0.37</v>
-      </c>
-      <c r="Q53" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="R53" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S53" s="15"/>
-      <c r="T53" s="15"/>
+        <v>0.49</v>
+      </c>
+      <c r="Q53" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R53" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S53" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="T53" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="4">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B54" s="5">
         <v>45840</v>
       </c>
       <c r="C54" s="6">
-        <v>688543</v>
+        <v>300993</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E54" s="6">
-        <v>-3.37</v>
+        <v>8.92</v>
       </c>
       <c r="F54" s="6">
-        <v>56.8</v>
+        <v>16.24</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L54" s="8"/>
+        <v>142</v>
+      </c>
+      <c r="H54" s="6">
+        <v>5.97</v>
+      </c>
+      <c r="I54" s="6">
+        <v>17.86</v>
+      </c>
+      <c r="J54" s="11">
+        <v>9.98</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="L54" s="13"/>
       <c r="M54" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N54" s="6">
-        <v>-54308996</v>
+        <v>45339182</v>
       </c>
       <c r="O54" s="6">
-        <v>-141000697</v>
-      </c>
-      <c r="P54" s="6">
-        <v>-0.82</v>
-      </c>
-      <c r="Q54" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R54" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S54" s="15"/>
-      <c r="T54" s="16"/>
+        <v>424437</v>
+      </c>
+      <c r="P54" s="14">
+        <v>1.19</v>
+      </c>
+      <c r="Q54" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R54" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S54" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="T54" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="4">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B55" s="5">
         <v>45840</v>
       </c>
       <c r="C55" s="6">
-        <v>300591</v>
+        <v>301007</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E55" s="6">
-        <v>2.5</v>
+        <v>-3.74</v>
       </c>
       <c r="F55" s="6">
-        <v>10.66</v>
+        <v>29.33</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L55" s="8"/>
+        <v>145</v>
+      </c>
+      <c r="H55" s="6">
+        <v>1.94</v>
+      </c>
+      <c r="I55" s="6">
+        <v>30.66</v>
+      </c>
+      <c r="J55" s="11">
+        <v>4.53</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="L55" s="13"/>
       <c r="M55" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N55" s="6">
-        <v>62067273</v>
+        <v>-11896584</v>
       </c>
       <c r="O55" s="6">
-        <v>121987390</v>
-      </c>
-      <c r="P55" s="14">
-        <v>1.65</v>
-      </c>
-      <c r="Q55" s="13" t="s">
+        <v>-22049411</v>
+      </c>
+      <c r="P55" s="6">
+        <v>-0.27</v>
+      </c>
+      <c r="Q55" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R55" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
+      <c r="S55" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T55" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="4">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B56" s="5">
         <v>45840</v>
       </c>
       <c r="C56" s="6">
-        <v>300645</v>
+        <v>301022</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E56" s="6">
-        <v>-3.1</v>
+        <v>1.42</v>
       </c>
       <c r="F56" s="6">
-        <v>18.78</v>
+        <v>34.88</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L56" s="8"/>
+        <v>148</v>
+      </c>
+      <c r="H56" s="6">
+        <v>-4.01</v>
+      </c>
+      <c r="I56" s="6">
+        <v>34.3</v>
+      </c>
+      <c r="J56" s="11">
+        <v>-1.66</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="L56" s="13"/>
       <c r="M56" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N56" s="6">
-        <v>-27791648</v>
+        <v>-1827848</v>
       </c>
       <c r="O56" s="6">
-        <v>-5772023</v>
+        <v>-20970563</v>
       </c>
       <c r="P56" s="6">
-        <v>-1.06</v>
-      </c>
-      <c r="Q56" s="13" t="s">
+        <v>-0.1</v>
+      </c>
+      <c r="Q56" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R56" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S56" s="15"/>
-      <c r="T56" s="15"/>
+      <c r="S56" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T56" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="4">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57" s="5">
         <v>45840</v>
       </c>
       <c r="C57" s="6">
-        <v>301132</v>
+        <v>301024</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E57" s="6">
-        <v>-2.27</v>
+        <v>-7.49</v>
       </c>
       <c r="F57" s="6">
-        <v>33.1</v>
+        <v>48.92</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="L57" s="8"/>
+        <v>151</v>
+      </c>
+      <c r="H57" s="6">
+        <v>-1.02</v>
+      </c>
+      <c r="I57" s="6">
+        <v>49.94</v>
+      </c>
+      <c r="J57" s="11">
+        <v>2.09</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L57" s="13"/>
       <c r="M57" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N57" s="6">
-        <v>-9697679</v>
+        <v>-4328659</v>
       </c>
       <c r="O57" s="6">
-        <v>-27021002</v>
+        <v>-34090475</v>
       </c>
       <c r="P57" s="6">
-        <v>-0.65</v>
-      </c>
-      <c r="Q57" s="13" t="s">
+        <v>-0.17</v>
+      </c>
+      <c r="Q57" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R57" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S57" s="15"/>
-      <c r="T57" s="15"/>
+      <c r="S57" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T57" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="4">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B58" s="5">
         <v>45840</v>
       </c>
       <c r="C58" s="6">
-        <v>301379</v>
+        <v>301125</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E58" s="6">
-        <v>-6.53</v>
+        <v>-2.24</v>
       </c>
       <c r="F58" s="6">
-        <v>26.05</v>
+        <v>16.56</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="L58" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="H58" s="6">
+        <v>-4.23</v>
+      </c>
+      <c r="I58" s="6">
+        <v>16.45</v>
+      </c>
+      <c r="J58" s="11">
+        <v>-0.66</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="L58" s="13"/>
       <c r="M58" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N58" s="6">
-        <v>-34528781</v>
+        <v>22403758</v>
       </c>
       <c r="O58" s="6">
-        <v>-101160498</v>
-      </c>
-      <c r="P58" s="6">
-        <v>-1.05</v>
-      </c>
-      <c r="Q58" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R58" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S58" s="15"/>
-      <c r="T58" s="15"/>
+        <v>-40345528</v>
+      </c>
+      <c r="P58" s="14">
+        <v>1.14</v>
+      </c>
+      <c r="Q58" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R58" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S58" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T58" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="4">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B59" s="5">
         <v>45840</v>
       </c>
       <c r="C59" s="6">
-        <v>301511</v>
+        <v>301132</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E59" s="6">
-        <v>6.45</v>
+        <v>-2.27</v>
       </c>
       <c r="F59" s="6">
-        <v>22.76</v>
+        <v>33.1</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="L59" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="H59" s="6">
+        <v>6.86</v>
+      </c>
+      <c r="I59" s="6">
+        <v>35.37</v>
+      </c>
+      <c r="J59" s="11">
+        <v>6.86</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L59" s="13"/>
       <c r="M59" s="6">
         <v>7</v>
       </c>
       <c r="N59" s="6">
-        <v>4168709</v>
+        <v>-9697679</v>
       </c>
       <c r="O59" s="6">
-        <v>180934918</v>
+        <v>-27021002</v>
       </c>
       <c r="P59" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="Q59" s="13" t="s">
+        <v>-0.65</v>
+      </c>
+      <c r="Q59" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R59" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S59" s="15"/>
-      <c r="T59" s="16"/>
+      <c r="S59" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T59" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="4">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B60" s="5">
         <v>45840</v>
       </c>
       <c r="C60" s="6">
-        <v>300016</v>
+        <v>301137</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E60" s="6">
-        <v>-2.02</v>
+        <v>6.56</v>
       </c>
       <c r="F60" s="6">
-        <v>9.71</v>
+        <v>39.98</v>
       </c>
       <c r="G60" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H60" s="6">
+        <v>-3.58</v>
+      </c>
+      <c r="I60" s="6">
+        <v>39.84</v>
+      </c>
+      <c r="J60" s="11">
+        <v>-0.35</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L60" s="13"/>
+      <c r="M60" s="6">
+        <v>3</v>
+      </c>
+      <c r="N60" s="6">
+        <v>24422633</v>
+      </c>
+      <c r="O60" s="6">
+        <v>92764613</v>
+      </c>
+      <c r="P60" s="14">
+        <v>0.59</v>
+      </c>
+      <c r="Q60" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="L60" s="8"/>
-      <c r="M60" s="6">
-        <v>8</v>
-      </c>
-      <c r="N60" s="6">
-        <v>-14478064</v>
-      </c>
-      <c r="O60" s="6">
-        <v>-24309325</v>
-      </c>
-      <c r="P60" s="6">
-        <v>-0.31</v>
-      </c>
-      <c r="Q60" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R60" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
+      <c r="R60" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S60" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T60" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="4">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B61" s="5">
         <v>45840</v>
       </c>
       <c r="C61" s="6">
-        <v>301421</v>
+        <v>301141</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E61" s="6">
-        <v>-5.89</v>
+        <v>-1.41</v>
       </c>
       <c r="F61" s="6">
-        <v>75.35</v>
+        <v>61.7</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L61" s="8"/>
+        <v>158</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="I61" s="6">
+        <v>63.9</v>
+      </c>
+      <c r="J61" s="11">
+        <v>3.57</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L61" s="13"/>
       <c r="M61" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N61" s="6">
-        <v>-56647398</v>
+        <v>20149979</v>
       </c>
       <c r="O61" s="6">
-        <v>-70120487</v>
-      </c>
-      <c r="P61" s="6">
-        <v>-1.6</v>
-      </c>
-      <c r="Q61" s="13" t="s">
-        <v>23</v>
+        <v>-64665693</v>
+      </c>
+      <c r="P61" s="14">
+        <v>0.66</v>
+      </c>
+      <c r="Q61" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="R61" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
+      <c r="S61" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T61" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="4">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B62" s="5">
         <v>45840</v>
       </c>
       <c r="C62" s="6">
-        <v>300903</v>
+        <v>301176</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E62" s="6">
-        <v>-7.8</v>
+        <v>4.29</v>
       </c>
       <c r="F62" s="6">
-        <v>10.28</v>
+        <v>27.2</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="L62" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="H62" s="6">
+        <v>20</v>
+      </c>
+      <c r="I62" s="6">
+        <v>32.64</v>
+      </c>
+      <c r="J62" s="11">
+        <v>20</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L62" s="13"/>
       <c r="M62" s="6">
         <v>9</v>
       </c>
       <c r="N62" s="6">
-        <v>-62545622</v>
+        <v>7490303</v>
       </c>
       <c r="O62" s="6">
-        <v>-63484132</v>
-      </c>
-      <c r="P62" s="6">
-        <v>-1.85</v>
-      </c>
-      <c r="Q62" s="13" t="s">
+        <v>70713783</v>
+      </c>
+      <c r="P62" s="14">
+        <v>0.48</v>
+      </c>
+      <c r="Q62" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R62" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
+      <c r="S62" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T62" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="5">
         <v>45840</v>
       </c>
       <c r="C63" s="6">
-        <v>301176</v>
+        <v>301197</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E63" s="6">
-        <v>4.29</v>
+        <v>-4.95</v>
       </c>
       <c r="F63" s="6">
-        <v>27.2</v>
+        <v>21.33</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="L63" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="H63" s="6">
+        <v>-0.38</v>
+      </c>
+      <c r="I63" s="6">
+        <v>21.68</v>
+      </c>
+      <c r="J63" s="11">
+        <v>1.64</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="L63" s="13"/>
       <c r="M63" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N63" s="6">
-        <v>7490303</v>
+        <v>-7017313</v>
       </c>
       <c r="O63" s="6">
-        <v>70713783</v>
-      </c>
-      <c r="P63" s="14">
-        <v>0.48</v>
-      </c>
-      <c r="Q63" s="13" t="s">
+        <v>-35317135</v>
+      </c>
+      <c r="P63" s="6">
+        <v>-0.4</v>
+      </c>
+      <c r="Q63" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R63" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
+      <c r="S63" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T63" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="4">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B64" s="5">
         <v>45840</v>
       </c>
       <c r="C64" s="6">
-        <v>300180</v>
+        <v>301205</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E64" s="6">
-        <v>-1.12</v>
+        <v>1.43</v>
       </c>
       <c r="F64" s="6">
-        <v>8.82</v>
+        <v>97.43</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L64" s="8"/>
+        <v>163</v>
+      </c>
+      <c r="H64" s="6">
+        <v>-0.85</v>
+      </c>
+      <c r="I64" s="6">
+        <v>98.41</v>
+      </c>
+      <c r="J64" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="L64" s="13"/>
       <c r="M64" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N64" s="6">
-        <v>-13570452</v>
+        <v>-37794329</v>
       </c>
       <c r="O64" s="6">
-        <v>-107052322</v>
+        <v>-15281897</v>
       </c>
       <c r="P64" s="6">
-        <v>-0.11</v>
-      </c>
-      <c r="Q64" s="13" t="s">
+        <v>-0.58</v>
+      </c>
+      <c r="Q64" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R64" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
+      <c r="S64" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T64" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="4">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B65" s="5">
         <v>45840</v>
       </c>
       <c r="C65" s="6">
-        <v>300531</v>
+        <v>301213</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E65" s="6">
-        <v>-3.66</v>
+        <v>-3.84</v>
       </c>
       <c r="F65" s="6">
-        <v>20.79</v>
+        <v>58.8</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L65" s="8"/>
+        <v>166</v>
+      </c>
+      <c r="H65" s="6">
+        <v>-2.19</v>
+      </c>
+      <c r="I65" s="6">
+        <v>59.77</v>
+      </c>
+      <c r="J65" s="11">
+        <v>1.65</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" s="13"/>
       <c r="M65" s="6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N65" s="6">
-        <v>-83770643</v>
+        <v>6960438</v>
       </c>
       <c r="O65" s="6">
-        <v>-34021896</v>
+        <v>-28549074</v>
       </c>
       <c r="P65" s="6">
-        <v>-1.3</v>
-      </c>
-      <c r="Q65" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R65" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S65" s="15"/>
-      <c r="T65" s="16"/>
+        <v>0.22</v>
+      </c>
+      <c r="Q65" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R65" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S65" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T65" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="4">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B66" s="5">
         <v>45840</v>
       </c>
       <c r="C66" s="6">
-        <v>300130</v>
+        <v>301312</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E66" s="6">
-        <v>-3.19</v>
+        <v>6.62</v>
       </c>
       <c r="F66" s="6">
-        <v>31.89</v>
+        <v>44.78</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L66" s="8"/>
+        <v>168</v>
+      </c>
+      <c r="H66" s="6">
+        <v>5.09</v>
+      </c>
+      <c r="I66" s="6">
+        <v>50</v>
+      </c>
+      <c r="J66" s="11">
+        <v>11.66</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="L66" s="13"/>
       <c r="M66" s="6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N66" s="6">
-        <v>-159647680</v>
+        <v>27048480</v>
       </c>
       <c r="O66" s="6">
-        <v>8919950</v>
-      </c>
-      <c r="P66" s="6">
-        <v>-1.15</v>
-      </c>
-      <c r="Q66" s="13" t="s">
-        <v>23</v>
+        <v>-22643664</v>
+      </c>
+      <c r="P66" s="14">
+        <v>1.69</v>
+      </c>
+      <c r="Q66" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="R66" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S66" s="15"/>
-      <c r="T66" s="15"/>
+      <c r="S66" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T66" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="4">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B67" s="5">
         <v>45840</v>
       </c>
       <c r="C67" s="6">
-        <v>300581</v>
+        <v>301319</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E67" s="6">
-        <v>-6.78</v>
+        <v>-8.65</v>
       </c>
       <c r="F67" s="6">
-        <v>19.53</v>
+        <v>30.82</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L67" s="8"/>
+        <v>171</v>
+      </c>
+      <c r="H67" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="I67" s="6">
+        <v>32.24</v>
+      </c>
+      <c r="J67" s="11">
+        <v>4.61</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L67" s="13"/>
       <c r="M67" s="6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N67" s="6">
-        <v>-89853575</v>
+        <v>-16632605</v>
       </c>
       <c r="O67" s="6">
-        <v>-106755805</v>
+        <v>-70387126</v>
       </c>
       <c r="P67" s="6">
-        <v>-0.83</v>
-      </c>
-      <c r="Q67" s="13" t="s">
+        <v>-0.97</v>
+      </c>
+      <c r="Q67" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R67" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S67" s="15"/>
-      <c r="T67" s="15"/>
+      <c r="S67" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T67" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="4">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B68" s="5">
         <v>45840</v>
       </c>
       <c r="C68" s="6">
-        <v>300619</v>
+        <v>301345</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E68" s="6">
-        <v>0.58</v>
+        <v>3.55</v>
       </c>
       <c r="F68" s="6">
-        <v>27.69</v>
+        <v>128.4</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L68" s="8"/>
+        <v>173</v>
+      </c>
+      <c r="H68" s="6">
+        <v>3.59</v>
+      </c>
+      <c r="I68" s="6">
+        <v>139.96</v>
+      </c>
+      <c r="J68" s="11">
+        <v>9</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L68" s="13"/>
       <c r="M68" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N68" s="6">
-        <v>20267670</v>
+        <v>64602264</v>
       </c>
       <c r="O68" s="6">
-        <v>-22994397</v>
+        <v>357465</v>
       </c>
       <c r="P68" s="14">
-        <v>0.49</v>
-      </c>
-      <c r="Q68" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R68" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S68" s="15"/>
-      <c r="T68" s="15"/>
+        <v>1.74</v>
+      </c>
+      <c r="Q68" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R68" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S68" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T68" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="4">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B69" s="5">
         <v>45840</v>
       </c>
       <c r="C69" s="6">
-        <v>300753</v>
+        <v>301379</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E69" s="6">
-        <v>-6.17</v>
+        <v>-6.53</v>
       </c>
       <c r="F69" s="6">
-        <v>32.22</v>
+        <v>26.05</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="L69" s="8"/>
+        <v>176</v>
+      </c>
+      <c r="H69" s="6">
+        <v>1.92</v>
+      </c>
+      <c r="I69" s="6">
+        <v>26.75</v>
+      </c>
+      <c r="J69" s="11">
+        <v>2.69</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="L69" s="13"/>
       <c r="M69" s="6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N69" s="6">
-        <v>-24468843</v>
+        <v>-34528781</v>
       </c>
       <c r="O69" s="6">
-        <v>-84102370</v>
+        <v>-101160498</v>
       </c>
       <c r="P69" s="6">
-        <v>-0.92</v>
-      </c>
-      <c r="Q69" s="13" t="s">
+        <v>-1.05</v>
+      </c>
+      <c r="Q69" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R69" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S69" s="15"/>
-      <c r="T69" s="15"/>
+      <c r="S69" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T69" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="4">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B70" s="5">
         <v>45840</v>
       </c>
       <c r="C70" s="6">
-        <v>688499</v>
+        <v>301408</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E70" s="6">
-        <v>-2.32</v>
+        <v>-8.72</v>
       </c>
       <c r="F70" s="6">
-        <v>39.08</v>
+        <v>14.35</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L70" s="8"/>
+        <v>179</v>
+      </c>
+      <c r="H70" s="6">
+        <v>-0.77</v>
+      </c>
+      <c r="I70" s="6">
+        <v>14.6</v>
+      </c>
+      <c r="J70" s="11">
+        <v>1.74</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L70" s="13"/>
       <c r="M70" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N70" s="6">
-        <v>-25729975</v>
+        <v>-56601007</v>
       </c>
       <c r="O70" s="6">
-        <v>-37597503</v>
+        <v>-88081066</v>
       </c>
       <c r="P70" s="6">
-        <v>-0.39</v>
-      </c>
-      <c r="Q70" s="13" t="s">
+        <v>-2.63</v>
+      </c>
+      <c r="Q70" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R70" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S70" s="15"/>
-      <c r="T70" s="15"/>
+      <c r="S70" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T70" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="4">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B71" s="5">
         <v>45840</v>
       </c>
       <c r="C71" s="6">
-        <v>300682</v>
+        <v>301421</v>
       </c>
       <c r="D71" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E71" s="6">
+        <v>-5.89</v>
+      </c>
+      <c r="F71" s="6">
+        <v>75.35</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E71" s="6">
-        <v>-6.65</v>
-      </c>
-      <c r="F71" s="6">
-        <v>21.34</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L71" s="8"/>
+      <c r="H71" s="6">
+        <v>-1.26</v>
+      </c>
+      <c r="I71" s="6">
+        <v>77</v>
+      </c>
+      <c r="J71" s="11">
+        <v>2.19</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="L71" s="13"/>
       <c r="M71" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N71" s="6">
-        <v>-174577630</v>
+        <v>-56647398</v>
       </c>
       <c r="O71" s="6">
-        <v>-84711118</v>
+        <v>-70120487</v>
       </c>
       <c r="P71" s="6">
-        <v>-0.78</v>
-      </c>
-      <c r="Q71" s="13" t="s">
+        <v>-1.6</v>
+      </c>
+      <c r="Q71" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R71" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
+      <c r="S71" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T71" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="4">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B72" s="5">
         <v>45840</v>
       </c>
       <c r="C72" s="6">
-        <v>300872</v>
+        <v>301511</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>182</v>
       </c>
       <c r="E72" s="6">
-        <v>-4.06</v>
+        <v>6.45</v>
       </c>
       <c r="F72" s="6">
-        <v>20.77</v>
+        <v>22.76</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L72" s="8"/>
+      <c r="H72" s="6">
+        <v>3.16</v>
+      </c>
+      <c r="I72" s="6">
+        <v>23.84</v>
+      </c>
+      <c r="J72" s="11">
+        <v>4.75</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="L72" s="13"/>
       <c r="M72" s="6">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N72" s="6">
-        <v>-128048290</v>
+        <v>4168709</v>
       </c>
       <c r="O72" s="6">
-        <v>-31441916</v>
+        <v>180934918</v>
       </c>
       <c r="P72" s="6">
-        <v>-1.56</v>
-      </c>
-      <c r="Q72" s="13" t="s">
+        <v>0.04</v>
+      </c>
+      <c r="Q72" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R72" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
+      <c r="S72" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T72" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5">
+        <v>45840</v>
+      </c>
+      <c r="C73" s="6">
+        <v>688084</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E73" s="6">
+        <v>6.21</v>
+      </c>
+      <c r="F73" s="6">
+        <v>95.94</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="5">
-        <v>45840</v>
-      </c>
-      <c r="C73" s="6">
-        <v>688573</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E73" s="6">
-        <v>-5.29</v>
-      </c>
-      <c r="F73" s="6">
-        <v>33.3</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L73" s="8"/>
+      <c r="H73" s="6">
+        <v>-3.06</v>
+      </c>
+      <c r="I73" s="6">
+        <v>98.2</v>
+      </c>
+      <c r="J73" s="11">
+        <v>2.36</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="L73" s="13"/>
       <c r="M73" s="6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N73" s="6">
-        <v>2765882</v>
+        <v>8014389</v>
       </c>
       <c r="O73" s="6">
-        <v>-72886982</v>
+        <v>4988025</v>
       </c>
       <c r="P73" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="Q73" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R73" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S73" s="15"/>
-      <c r="T73" s="15"/>
+        <v>0.21</v>
+      </c>
+      <c r="Q73" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R73" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S73" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T73" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="4">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B74" s="5">
         <v>45840</v>
       </c>
       <c r="C74" s="6">
-        <v>300340</v>
+        <v>688117</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E74" s="6">
-        <v>-3.73</v>
+        <v>-5.62</v>
       </c>
       <c r="F74" s="6">
-        <v>18.84</v>
+        <v>33.22</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L74" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="H74" s="6">
+        <v>1.29</v>
+      </c>
+      <c r="I74" s="6">
+        <v>34.43</v>
+      </c>
+      <c r="J74" s="11">
+        <v>3.64</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L74" s="13"/>
       <c r="M74" s="6">
         <v>17</v>
       </c>
       <c r="N74" s="6">
-        <v>-52480210</v>
+        <v>-22848905</v>
       </c>
       <c r="O74" s="6">
-        <v>-113213519</v>
+        <v>-109695609</v>
       </c>
       <c r="P74" s="6">
-        <v>-1.02</v>
-      </c>
-      <c r="Q74" s="13" t="s">
+        <v>-0.44</v>
+      </c>
+      <c r="Q74" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R74" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S74" s="15"/>
-      <c r="T74" s="15"/>
+      <c r="S74" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T74" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="4">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B75" s="5">
         <v>45840</v>
       </c>
       <c r="C75" s="6">
-        <v>300485</v>
+        <v>688151</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E75" s="6">
-        <v>-1.3</v>
+        <v>-6.87</v>
       </c>
       <c r="F75" s="6">
-        <v>13.69</v>
+        <v>25.91</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L75" s="8"/>
+        <v>189</v>
+      </c>
+      <c r="H75" s="6">
+        <v>-4.17</v>
+      </c>
+      <c r="I75" s="6">
+        <v>26.58</v>
+      </c>
+      <c r="J75" s="11">
+        <v>2.59</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" s="13"/>
       <c r="M75" s="6">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N75" s="6">
-        <v>-30311253</v>
+        <v>-18776048</v>
       </c>
       <c r="O75" s="6">
-        <v>-22916326</v>
+        <v>-58618334</v>
       </c>
       <c r="P75" s="6">
-        <v>-0.81</v>
-      </c>
-      <c r="Q75" s="13" t="s">
+        <v>-0.21</v>
+      </c>
+      <c r="Q75" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R75" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S75" s="15"/>
-      <c r="T75" s="15"/>
+      <c r="S75" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T75" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B76" s="5">
         <v>45840</v>
       </c>
       <c r="C76" s="6">
-        <v>688117</v>
+        <v>688499</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E76" s="6">
-        <v>-5.62</v>
+        <v>-2.32</v>
       </c>
       <c r="F76" s="6">
-        <v>33.22</v>
+        <v>39.08</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L76" s="8"/>
+        <v>92</v>
+      </c>
+      <c r="H76" s="6">
+        <v>1.97</v>
+      </c>
+      <c r="I76" s="6">
+        <v>40.49</v>
+      </c>
+      <c r="J76" s="11">
+        <v>3.61</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L76" s="13"/>
       <c r="M76" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N76" s="6">
-        <v>-22848905</v>
+        <v>-25729975</v>
       </c>
       <c r="O76" s="6">
-        <v>-109695609</v>
+        <v>-37597503</v>
       </c>
       <c r="P76" s="6">
-        <v>-0.44</v>
-      </c>
-      <c r="Q76" s="13" t="s">
+        <v>-0.39</v>
+      </c>
+      <c r="Q76" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R76" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S76" s="15"/>
-      <c r="T76" s="15"/>
+      <c r="S76" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T76" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="4">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B77" s="5">
         <v>45840</v>
       </c>
       <c r="C77" s="6">
-        <v>300773</v>
+        <v>688543</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E77" s="6">
-        <v>-6.08</v>
+        <v>-3.37</v>
       </c>
       <c r="F77" s="6">
-        <v>28.87</v>
+        <v>56.8</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L77" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="H77" s="6">
+        <v>1.07</v>
+      </c>
+      <c r="I77" s="6">
+        <v>58.13</v>
+      </c>
+      <c r="J77" s="11">
+        <v>2.34</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" s="13"/>
       <c r="M77" s="6">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N77" s="6">
-        <v>-361027770</v>
+        <v>-54308996</v>
       </c>
       <c r="O77" s="6">
-        <v>62160580</v>
+        <v>-141000697</v>
       </c>
       <c r="P77" s="6">
-        <v>-1.68</v>
-      </c>
-      <c r="Q77" s="13" t="s">
+        <v>-0.82</v>
+      </c>
+      <c r="Q77" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R77" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S77" s="15"/>
-      <c r="T77" s="15"/>
+      <c r="S77" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T77" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="4">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B78" s="5">
         <v>45840</v>
       </c>
       <c r="C78" s="6">
-        <v>300468</v>
+        <v>688573</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>192</v>
       </c>
       <c r="E78" s="6">
-        <v>-3.44</v>
+        <v>-5.29</v>
       </c>
       <c r="F78" s="6">
-        <v>44.1</v>
+        <v>33.3</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L78" s="8"/>
+        <v>92</v>
+      </c>
+      <c r="H78" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="I78" s="6">
+        <v>36.98</v>
+      </c>
+      <c r="J78" s="11">
+        <v>11.05</v>
+      </c>
+      <c r="K78" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L78" s="13"/>
       <c r="M78" s="6">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N78" s="6">
-        <v>-354290000</v>
+        <v>2765882</v>
       </c>
       <c r="O78" s="6">
-        <v>131212870</v>
+        <v>-72886982</v>
       </c>
       <c r="P78" s="6">
-        <v>-1.49</v>
-      </c>
-      <c r="Q78" s="13" t="s">
+        <v>0.13</v>
+      </c>
+      <c r="Q78" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R78" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S78" s="15"/>
-      <c r="T78" s="15"/>
+      <c r="S78" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T78" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="4">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B79" s="5">
         <v>45840</v>
       </c>
       <c r="C79" s="6">
-        <v>300204</v>
+        <v>688591</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>193</v>
       </c>
       <c r="E79" s="6">
-        <v>-5.05</v>
+        <v>-4.17</v>
       </c>
       <c r="F79" s="6">
-        <v>40.83</v>
+        <v>48.3</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L79" s="8"/>
+        <v>194</v>
+      </c>
+      <c r="H79" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="I79" s="6">
+        <v>49.7</v>
+      </c>
+      <c r="J79" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="K79" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L79" s="13"/>
       <c r="M79" s="6">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="N79" s="6">
-        <v>-36848739</v>
+        <v>-50927527</v>
       </c>
       <c r="O79" s="6">
-        <v>-188003395</v>
+        <v>-81399853</v>
       </c>
       <c r="P79" s="6">
-        <v>-0.18</v>
-      </c>
-      <c r="Q79" s="13" t="s">
+        <v>-0.63</v>
+      </c>
+      <c r="Q79" s="12" t="s">
         <v>23</v>
       </c>
       <c r="R79" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S79" s="15"/>
-      <c r="T79" s="15"/>
+      <c r="S79" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T79" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="17"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="20"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="13"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="15"/>
-      <c r="T80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="25"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27"/>
+      <c r="T80" s="27"/>
     </row>
     <row r="81" spans="1:20">
-      <c r="A81" s="4"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="15"/>
-      <c r="T81" s="15"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="27"/>
+      <c r="S81" s="27"/>
+      <c r="T81" s="27"/>
     </row>
     <row r="82" spans="1:20">
-      <c r="A82" s="4"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="15"/>
-      <c r="S82" s="15"/>
-      <c r="T82" s="16"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="28"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27"/>
+      <c r="T82" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataanalysis/alert/0702.xlsx
+++ b/dataanalysis/alert/0702.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowHeight="14605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="197">
   <si>
     <t>序号</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>最高价</t>
+  </si>
+  <si>
+    <t>AI预测</t>
+  </si>
+  <si>
+    <t>AI幅度</t>
   </si>
   <si>
     <t>天海防务</t>
@@ -625,7 +631,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,6 +680,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDE322C"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1170,16 +1182,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1188,119 +1197,122 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1346,28 +1358,26 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1375,18 +1385,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1663,13 +1661,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1920,15 +1911,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T82"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="R68" sqref="R68"/>
+      <selection activeCell="U1" sqref="U1:V79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData>
-    <row r="1" ht="27" spans="1:20">
+    <row r="1" ht="28.3" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1989,8 +1980,14 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2001,7 +1998,7 @@
         <v>300008</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="6">
         <v>1.63</v>
@@ -2010,7 +2007,7 @@
         <v>7.46</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="6">
         <v>-4.96</v>
@@ -2022,7 +2019,7 @@
         <v>0.4</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" s="13"/>
       <c r="M2" s="6">
@@ -2038,19 +2035,25 @@
         <v>-1.71</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="18">
+        <v>0</v>
+      </c>
+      <c r="V2" s="19">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>300016</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="6">
         <v>-2.02</v>
@@ -2070,7 +2073,7 @@
         <v>9.71</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="6">
         <v>1.24</v>
@@ -2082,7 +2085,7 @@
         <v>2.78</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="6">
@@ -2098,19 +2101,25 @@
         <v>-0.31</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="18">
+        <v>0</v>
+      </c>
+      <c r="V3" s="19">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2121,7 +2130,7 @@
         <v>300046</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6">
         <v>-7.63</v>
@@ -2130,7 +2139,7 @@
         <v>42.4</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="6">
         <v>-1.42</v>
@@ -2142,7 +2151,7 @@
         <v>0.92</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="6">
@@ -2158,19 +2167,25 @@
         <v>-1.54</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="18">
+        <v>0</v>
+      </c>
+      <c r="V4" s="19">
+        <v>16.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2181,7 +2196,7 @@
         <v>300092</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" s="6">
         <v>-2.24</v>
@@ -2190,7 +2205,7 @@
         <v>13.96</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5" s="6">
         <v>-1.29</v>
@@ -2202,7 +2217,7 @@
         <v>0.64</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="6">
@@ -2218,19 +2233,25 @@
         <v>-0.09</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="18">
+        <v>0</v>
+      </c>
+      <c r="V5" s="19">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2241,7 +2262,7 @@
         <v>300095</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" s="6">
         <v>3.61</v>
@@ -2250,7 +2271,7 @@
         <v>10.33</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" s="6">
         <v>-4.74</v>
@@ -2262,7 +2283,7 @@
         <v>0.58</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="6">
@@ -2278,19 +2299,25 @@
         <v>0.57</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="18">
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2301,7 +2328,7 @@
         <v>300121</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="6">
         <v>-2.02</v>
@@ -2310,7 +2337,7 @@
         <v>15.03</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" s="6">
         <v>-2.26</v>
@@ -2322,7 +2349,7 @@
         <v>-0.27</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="6">
@@ -2338,19 +2365,25 @@
         <v>-0.1</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="18">
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <v>-0.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2361,7 +2394,7 @@
         <v>300130</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" s="6">
         <v>-3.19</v>
@@ -2370,7 +2403,7 @@
         <v>31.89</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="6">
         <v>0.38</v>
@@ -2382,7 +2415,7 @@
         <v>1.32</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="6">
@@ -2398,19 +2431,25 @@
         <v>-1.15</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U8" s="18">
+        <v>0</v>
+      </c>
+      <c r="V8" s="19">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2421,7 +2460,7 @@
         <v>300157</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="8">
         <v>0</v>
@@ -2430,7 +2469,7 @@
         <v>5.15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H9" s="6">
         <v>-2.14</v>
@@ -2442,7 +2481,7 @@
         <v>0.39</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="6">
@@ -2458,19 +2497,25 @@
         <v>0.19</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" s="18">
+        <v>0</v>
+      </c>
+      <c r="V9" s="19">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2481,7 +2526,7 @@
         <v>300180</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" s="6">
         <v>-1.12</v>
@@ -2490,7 +2535,7 @@
         <v>8.82</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H10" s="6">
         <v>-0.79</v>
@@ -2502,7 +2547,7 @@
         <v>0.79</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="6">
@@ -2518,19 +2563,25 @@
         <v>-0.11</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10" s="18">
+        <v>0</v>
+      </c>
+      <c r="V10" s="19">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2541,7 +2592,7 @@
         <v>300196</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" s="6">
         <v>-5.74</v>
@@ -2550,7 +2601,7 @@
         <v>13.8</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H11" s="6">
         <v>0.72</v>
@@ -2562,7 +2613,7 @@
         <v>2.17</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="6">
@@ -2578,19 +2629,25 @@
         <v>-1.41</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T11" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="18">
+        <v>0</v>
+      </c>
+      <c r="V11" s="19">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2601,7 +2658,7 @@
         <v>300199</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="6">
         <v>1.39</v>
@@ -2610,7 +2667,7 @@
         <v>17.49</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H12" s="6">
         <v>3.95</v>
@@ -2622,7 +2679,7 @@
         <v>4.97</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="6">
@@ -2638,19 +2695,25 @@
         <v>-0.84</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T12" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U12" s="18">
+        <v>0</v>
+      </c>
+      <c r="V12" s="19">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2661,7 +2724,7 @@
         <v>300204</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E13" s="6">
         <v>-5.05</v>
@@ -2670,7 +2733,7 @@
         <v>40.83</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H13" s="6">
         <v>9.33</v>
@@ -2682,7 +2745,7 @@
         <v>12.66</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="6">
@@ -2698,19 +2761,25 @@
         <v>-0.18</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T13" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U13" s="18">
+        <v>0</v>
+      </c>
+      <c r="V13" s="19">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2721,7 +2790,7 @@
         <v>300269</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" s="6">
         <v>0.67</v>
@@ -2730,7 +2799,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H14" s="6">
         <v>-3.67</v>
@@ -2742,7 +2811,7 @@
         <v>2.67</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="6">
@@ -2758,19 +2827,25 @@
         <v>0.93</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T14" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" s="18">
+        <v>0</v>
+      </c>
+      <c r="V14" s="19">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2781,7 +2856,7 @@
         <v>300340</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15" s="6">
         <v>-3.73</v>
@@ -2790,7 +2865,7 @@
         <v>18.84</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H15" s="6">
         <v>6.69</v>
@@ -2802,7 +2877,7 @@
         <v>7.75</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="6">
@@ -2818,19 +2893,25 @@
         <v>-1.02</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U15" s="18">
+        <v>0</v>
+      </c>
+      <c r="V15" s="19">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2841,7 +2922,7 @@
         <v>300386</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E16" s="6">
         <v>-3.36</v>
@@ -2850,7 +2931,7 @@
         <v>20.97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H16" s="6">
         <v>-0.1</v>
@@ -2862,7 +2943,7 @@
         <v>0.81</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="6">
@@ -2878,19 +2959,25 @@
         <v>-1.27</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T16" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U16" s="18">
+        <v>0</v>
+      </c>
+      <c r="V16" s="19">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2901,7 +2988,7 @@
         <v>300414</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17" s="6">
         <v>-8.77</v>
@@ -2910,7 +2997,7 @@
         <v>13.01</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H17" s="6">
         <v>-2.38</v>
@@ -2922,7 +3009,7 @@
         <v>0.85</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="6">
@@ -2938,19 +3025,25 @@
         <v>-1.12</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T17" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U17" s="18">
+        <v>0</v>
+      </c>
+      <c r="V17" s="19">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2961,7 +3054,7 @@
         <v>300429</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E18" s="6">
         <v>-2.61</v>
@@ -2970,7 +3063,7 @@
         <v>14.55</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H18" s="6">
         <v>-1.72</v>
@@ -2982,7 +3075,7 @@
         <v>-0.48</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L18" s="13"/>
       <c r="M18" s="6">
@@ -2998,19 +3091,25 @@
         <v>-0.9</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T18" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U18" s="18">
+        <v>0</v>
+      </c>
+      <c r="V18" s="19">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3021,7 +3120,7 @@
         <v>300452</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E19" s="6">
         <v>-4.62</v>
@@ -3030,7 +3129,7 @@
         <v>14.04</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H19" s="6">
         <v>8.26</v>
@@ -3042,7 +3141,7 @@
         <v>13.46</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L19" s="13"/>
       <c r="M19" s="6">
@@ -3058,19 +3157,25 @@
         <v>-2.69</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T19" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T19" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U19" s="18">
+        <v>0</v>
+      </c>
+      <c r="V19" s="19">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3081,7 +3186,7 @@
         <v>300468</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E20" s="6">
         <v>-3.44</v>
@@ -3090,7 +3195,7 @@
         <v>44.1</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H20" s="6">
         <v>0.61</v>
@@ -3102,7 +3207,7 @@
         <v>1.93</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="6">
@@ -3118,19 +3223,25 @@
         <v>-1.49</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T20" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U20" s="18">
+        <v>0</v>
+      </c>
+      <c r="V20" s="19">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3141,7 +3252,7 @@
         <v>300485</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E21" s="6">
         <v>-1.3</v>
@@ -3150,7 +3261,7 @@
         <v>13.69</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H21" s="6">
         <v>10.45</v>
@@ -3162,7 +3273,7 @@
         <v>18.48</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="6">
@@ -3178,19 +3289,25 @@
         <v>-0.81</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T21" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T21" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U21" s="18">
+        <v>0</v>
+      </c>
+      <c r="V21" s="19">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3201,7 +3318,7 @@
         <v>300515</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E22" s="6">
         <v>14.8</v>
@@ -3210,7 +3327,7 @@
         <v>27</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H22" s="6">
         <v>-4.89</v>
@@ -3222,7 +3339,7 @@
         <v>-0.04</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L22" s="13"/>
       <c r="M22" s="6">
@@ -3237,20 +3354,26 @@
       <c r="P22" s="14">
         <v>0.34</v>
       </c>
-      <c r="Q22" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="R22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T22" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="Q22" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U22" s="21">
+        <v>1</v>
+      </c>
+      <c r="V22" s="19">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3261,7 +3384,7 @@
         <v>300527</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E23" s="6">
         <v>13.14</v>
@@ -3270,7 +3393,7 @@
         <v>12.4</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H23" s="6">
         <v>-10.48</v>
@@ -3282,7 +3405,7 @@
         <v>-2.02</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L23" s="13"/>
       <c r="M23" s="6">
@@ -3298,19 +3421,25 @@
         <v>-2.47</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T23" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U23" s="21">
+        <v>1</v>
+      </c>
+      <c r="V23" s="19">
+        <v>-1.92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3321,7 +3450,7 @@
         <v>300531</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E24" s="6">
         <v>-3.66</v>
@@ -3330,7 +3459,7 @@
         <v>20.79</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H24" s="6">
         <v>0.34</v>
@@ -3342,7 +3471,7 @@
         <v>0.91</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="6">
@@ -3358,19 +3487,25 @@
         <v>-1.3</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T24" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R24" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S24" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24" s="18">
+        <v>0</v>
+      </c>
+      <c r="V24" s="19">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3381,7 +3516,7 @@
         <v>300533</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E25" s="6">
         <v>-1.08</v>
@@ -3390,7 +3525,7 @@
         <v>33.05</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H25" s="6">
         <v>-1.48</v>
@@ -3402,7 +3537,7 @@
         <v>4.39</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="6">
@@ -3418,19 +3553,25 @@
         <v>0.07</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R25" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S25" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T25" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U25" s="18">
+        <v>0</v>
+      </c>
+      <c r="V25" s="19">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3441,7 +3582,7 @@
         <v>300537</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E26" s="6">
         <v>3.77</v>
@@ -3450,7 +3591,7 @@
         <v>28.65</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H26" s="6">
         <v>-11.41</v>
@@ -3462,7 +3603,7 @@
         <v>-2.72</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L26" s="13"/>
       <c r="M26" s="6">
@@ -3477,20 +3618,26 @@
       <c r="P26" s="6">
         <v>-0.71</v>
       </c>
-      <c r="Q26" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="R26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T26" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="Q26" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U26" s="18">
+        <v>0</v>
+      </c>
+      <c r="V26" s="19">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3501,7 +3648,7 @@
         <v>300568</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E27" s="6">
         <v>-1.68</v>
@@ -3510,7 +3657,7 @@
         <v>12.3</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H27" s="6">
         <v>2.44</v>
@@ -3522,7 +3669,7 @@
         <v>3.98</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L27" s="13"/>
       <c r="M27" s="6">
@@ -3538,19 +3685,25 @@
         <v>0.15</v>
       </c>
       <c r="Q27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R27" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S27" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T27" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R27" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U27" s="18">
+        <v>0</v>
+      </c>
+      <c r="V27" s="19">
+        <v>-1.58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3561,7 +3714,7 @@
         <v>300581</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E28" s="6">
         <v>-6.78</v>
@@ -3570,7 +3723,7 @@
         <v>19.53</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H28" s="6">
         <v>1.43</v>
@@ -3582,7 +3735,7 @@
         <v>7.42</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L28" s="13"/>
       <c r="M28" s="6">
@@ -3598,19 +3751,25 @@
         <v>-0.83</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R28" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S28" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T28" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R28" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T28" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U28" s="18">
+        <v>0</v>
+      </c>
+      <c r="V28" s="19">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3621,7 +3780,7 @@
         <v>300589</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E29" s="6">
         <v>-0.19</v>
@@ -3630,7 +3789,7 @@
         <v>15.89</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H29" s="6">
         <v>-5.54</v>
@@ -3642,7 +3801,7 @@
         <v>0.31</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L29" s="13"/>
       <c r="M29" s="6">
@@ -3658,19 +3817,25 @@
         <v>-1.48</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R29" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S29" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T29" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U29" s="18">
+        <v>0</v>
+      </c>
+      <c r="V29" s="19">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3681,7 +3846,7 @@
         <v>300591</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E30" s="6">
         <v>2.5</v>
@@ -3690,7 +3855,7 @@
         <v>10.66</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H30" s="6">
         <v>8.54</v>
@@ -3702,7 +3867,7 @@
         <v>9.19</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L30" s="13"/>
       <c r="M30" s="6">
@@ -3718,19 +3883,25 @@
         <v>1.65</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S30" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T30" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R30" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T30" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U30" s="18">
+        <v>0</v>
+      </c>
+      <c r="V30" s="19">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3741,7 +3912,7 @@
         <v>300600</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E31" s="6">
         <v>-6.42</v>
@@ -3750,7 +3921,7 @@
         <v>14.71</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H31" s="6">
         <v>-3.74</v>
@@ -3762,7 +3933,7 @@
         <v>2.58</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L31" s="13"/>
       <c r="M31" s="6">
@@ -3778,19 +3949,25 @@
         <v>-0.38</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R31" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S31" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T31" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T31" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U31" s="18">
+        <v>0</v>
+      </c>
+      <c r="V31" s="19">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3801,7 +3978,7 @@
         <v>300619</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E32" s="6">
         <v>0.58</v>
@@ -3810,7 +3987,7 @@
         <v>27.69</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H32" s="6">
         <v>4.08</v>
@@ -3822,7 +3999,7 @@
         <v>5.49</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L32" s="13"/>
       <c r="M32" s="6">
@@ -3838,19 +4015,25 @@
         <v>0.49</v>
       </c>
       <c r="Q32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S32" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T32" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T32" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U32" s="18">
+        <v>0</v>
+      </c>
+      <c r="V32" s="19">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3861,7 +4044,7 @@
         <v>300645</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E33" s="6">
         <v>-3.1</v>
@@ -3870,7 +4053,7 @@
         <v>18.78</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H33" s="6">
         <v>9.96</v>
@@ -3882,7 +4065,7 @@
         <v>15.92</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L33" s="13"/>
       <c r="M33" s="6">
@@ -3898,19 +4081,25 @@
         <v>-1.06</v>
       </c>
       <c r="Q33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S33" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T33" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S33" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T33" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U33" s="18">
+        <v>0</v>
+      </c>
+      <c r="V33" s="19">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3921,7 +4110,7 @@
         <v>300649</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E34" s="6">
         <v>-10.43</v>
@@ -3930,7 +4119,7 @@
         <v>16.41</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H34" s="6">
         <v>6.03</v>
@@ -3942,7 +4131,7 @@
         <v>7.19</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L34" s="13"/>
       <c r="M34" s="6">
@@ -3958,19 +4147,25 @@
         <v>-1.11</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R34" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S34" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T34" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R34" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T34" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U34" s="18">
+        <v>0</v>
+      </c>
+      <c r="V34" s="19">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3981,7 +4176,7 @@
         <v>300665</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E35" s="6">
         <v>4.59</v>
@@ -3990,7 +4185,7 @@
         <v>10.49</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H35" s="6">
         <v>-12.3</v>
@@ -4002,7 +4197,7 @@
         <v>-4</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L35" s="13"/>
       <c r="M35" s="6">
@@ -4018,19 +4213,25 @@
         <v>-2.82</v>
       </c>
       <c r="Q35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R35" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S35" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T35" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R35" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S35" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T35" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U35" s="21">
+        <v>1</v>
+      </c>
+      <c r="V35" s="19">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4041,7 +4242,7 @@
         <v>300682</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E36" s="6">
         <v>-6.65</v>
@@ -4050,7 +4251,7 @@
         <v>21.34</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H36" s="6">
         <v>0.05</v>
@@ -4062,7 +4263,7 @@
         <v>2.34</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L36" s="13"/>
       <c r="M36" s="6">
@@ -4078,19 +4279,25 @@
         <v>-0.78</v>
       </c>
       <c r="Q36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R36" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S36" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T36" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R36" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S36" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T36" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U36" s="18">
+        <v>0</v>
+      </c>
+      <c r="V36" s="19">
+        <v>-1.64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4101,7 +4308,7 @@
         <v>300695</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E37" s="6">
         <v>6.92</v>
@@ -4110,7 +4317,7 @@
         <v>89.28</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H37" s="6">
         <v>-2.17</v>
@@ -4122,7 +4329,7 @@
         <v>4.73</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L37" s="13"/>
       <c r="M37" s="6">
@@ -4137,20 +4344,26 @@
       <c r="P37" s="14">
         <v>0.37</v>
       </c>
-      <c r="Q37" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="R37" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S37" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T37" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="Q37" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R37" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S37" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T37" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U37" s="21">
+        <v>1</v>
+      </c>
+      <c r="V37" s="19">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4161,7 +4374,7 @@
         <v>300697</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E38" s="6">
         <v>4.91</v>
@@ -4170,7 +4383,7 @@
         <v>16.46</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H38" s="6">
         <v>-2.61</v>
@@ -4182,7 +4395,7 @@
         <v>6.38</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L38" s="13"/>
       <c r="M38" s="6">
@@ -4197,20 +4410,26 @@
       <c r="P38" s="14">
         <v>0.47</v>
       </c>
-      <c r="Q38" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="R38" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S38" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T38" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="Q38" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R38" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S38" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T38" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U38" s="21">
+        <v>1</v>
+      </c>
+      <c r="V38" s="19">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4221,7 +4440,7 @@
         <v>300722</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E39" s="6">
         <v>-3.02</v>
@@ -4230,7 +4449,7 @@
         <v>35.31</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H39" s="6">
         <v>2.07</v>
@@ -4242,7 +4461,7 @@
         <v>3.65</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L39" s="13"/>
       <c r="M39" s="6">
@@ -4258,19 +4477,25 @@
         <v>-0.4</v>
       </c>
       <c r="Q39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R39" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S39" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T39" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R39" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S39" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T39" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U39" s="18">
+        <v>0</v>
+      </c>
+      <c r="V39" s="19">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4281,7 +4506,7 @@
         <v>300747</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E40" s="6">
         <v>-1.83</v>
@@ -4290,7 +4515,7 @@
         <v>23.59</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H40" s="6">
         <v>0.04</v>
@@ -4302,7 +4527,7 @@
         <v>1.57</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L40" s="13"/>
       <c r="M40" s="6">
@@ -4318,19 +4543,25 @@
         <v>-0.37</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R40" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S40" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T40" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U40" s="18">
+        <v>0</v>
+      </c>
+      <c r="V40" s="19">
+        <v>-1.21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4341,7 +4572,7 @@
         <v>300753</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E41" s="6">
         <v>-6.17</v>
@@ -4350,7 +4581,7 @@
         <v>32.22</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H41" s="6">
         <v>-2.51</v>
@@ -4362,7 +4593,7 @@
         <v>1.37</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L41" s="13"/>
       <c r="M41" s="6">
@@ -4378,19 +4609,25 @@
         <v>-0.92</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R41" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S41" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T41" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R41" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S41" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T41" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U41" s="18">
+        <v>0</v>
+      </c>
+      <c r="V41" s="19">
+        <v>-1.61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4401,7 +4638,7 @@
         <v>300767</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E42" s="6">
         <v>-5.71</v>
@@ -4410,7 +4647,7 @@
         <v>13.38</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H42" s="6">
         <v>0.75</v>
@@ -4422,7 +4659,7 @@
         <v>1.57</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L42" s="13"/>
       <c r="M42" s="6">
@@ -4438,19 +4675,25 @@
         <v>-0.68</v>
       </c>
       <c r="Q42" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R42" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S42" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T42" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R42" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S42" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T42" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U42" s="18">
+        <v>0</v>
+      </c>
+      <c r="V42" s="19">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4461,7 +4704,7 @@
         <v>300773</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E43" s="6">
         <v>-6.08</v>
@@ -4470,7 +4713,7 @@
         <v>28.87</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H43" s="8">
         <v>0</v>
@@ -4482,7 +4725,7 @@
         <v>0.8</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L43" s="13"/>
       <c r="M43" s="6">
@@ -4498,19 +4741,25 @@
         <v>-1.68</v>
       </c>
       <c r="Q43" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R43" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S43" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T43" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R43" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S43" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T43" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U43" s="18">
+        <v>0</v>
+      </c>
+      <c r="V43" s="19">
+        <v>-1.03</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4521,7 +4770,7 @@
         <v>300803</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E44" s="6">
         <v>-1.01</v>
@@ -4530,7 +4779,7 @@
         <v>77.09</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H44" s="6">
         <v>-0.8</v>
@@ -4542,7 +4791,7 @@
         <v>0.88</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L44" s="13"/>
       <c r="M44" s="6">
@@ -4558,19 +4807,25 @@
         <v>-0.11</v>
       </c>
       <c r="Q44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R44" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S44" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T44" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R44" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S44" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T44" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U44" s="18">
+        <v>0</v>
+      </c>
+      <c r="V44" s="19">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4581,7 +4836,7 @@
         <v>300810</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E45" s="6">
         <v>10.15</v>
@@ -4590,7 +4845,7 @@
         <v>55</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H45" s="6">
         <v>-9.09</v>
@@ -4602,7 +4857,7 @@
         <v>2.47</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L45" s="13"/>
       <c r="M45" s="6">
@@ -4618,19 +4873,25 @@
         <v>-2.39</v>
       </c>
       <c r="Q45" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R45" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S45" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T45" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R45" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S45" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T45" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U45" s="21">
+        <v>1</v>
+      </c>
+      <c r="V45" s="19">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4641,7 +4902,7 @@
         <v>300872</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E46" s="6">
         <v>-4.06</v>
@@ -4650,7 +4911,7 @@
         <v>20.77</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H46" s="6">
         <v>-0.34</v>
@@ -4662,7 +4923,7 @@
         <v>0.53</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L46" s="13"/>
       <c r="M46" s="6">
@@ -4678,19 +4939,25 @@
         <v>-1.56</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R46" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S46" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T46" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R46" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S46" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T46" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U46" s="18">
+        <v>0</v>
+      </c>
+      <c r="V46" s="19">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4701,7 +4968,7 @@
         <v>300875</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E47" s="6">
         <v>-4.56</v>
@@ -4710,7 +4977,7 @@
         <v>44.8</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H47" s="6">
         <v>-2.54</v>
@@ -4722,7 +4989,7 @@
         <v>4.8</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L47" s="13"/>
       <c r="M47" s="6">
@@ -4738,19 +5005,25 @@
         <v>-0.68</v>
       </c>
       <c r="Q47" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R47" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S47" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T47" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R47" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S47" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T47" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U47" s="18">
+        <v>0</v>
+      </c>
+      <c r="V47" s="19">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4761,7 +5034,7 @@
         <v>300903</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E48" s="6">
         <v>-7.8</v>
@@ -4770,7 +5043,7 @@
         <v>10.28</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H48" s="6">
         <v>4.77</v>
@@ -4782,7 +5055,7 @@
         <v>5.74</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L48" s="13"/>
       <c r="M48" s="6">
@@ -4798,19 +5071,25 @@
         <v>-1.85</v>
       </c>
       <c r="Q48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R48" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S48" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T48" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R48" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S48" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T48" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U48" s="18">
+        <v>0</v>
+      </c>
+      <c r="V48" s="19">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4821,7 +5100,7 @@
         <v>300922</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E49" s="6">
         <v>-3.46</v>
@@ -4830,7 +5109,7 @@
         <v>26.26</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H49" s="6">
         <v>0.04</v>
@@ -4842,7 +5121,7 @@
         <v>1.87</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L49" s="13"/>
       <c r="M49" s="6">
@@ -4858,19 +5137,25 @@
         <v>-0.11</v>
       </c>
       <c r="Q49" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R49" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S49" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T49" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R49" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S49" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T49" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U49" s="18">
+        <v>0</v>
+      </c>
+      <c r="V49" s="19">
+        <v>-1.27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -4881,7 +5166,7 @@
         <v>300947</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E50" s="6">
         <v>-1.91</v>
@@ -4890,7 +5175,7 @@
         <v>24.7</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H50" s="6">
         <v>-2.31</v>
@@ -4902,7 +5187,7 @@
         <v>-0.45</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L50" s="13"/>
       <c r="M50" s="6">
@@ -4918,19 +5203,25 @@
         <v>-0.03</v>
       </c>
       <c r="Q50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R50" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S50" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T50" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R50" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S50" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T50" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U50" s="18">
+        <v>0</v>
+      </c>
+      <c r="V50" s="19">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4941,7 +5232,7 @@
         <v>300965</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E51" s="6">
         <v>-10.38</v>
@@ -4950,7 +5241,7 @@
         <v>58.9</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H51" s="6">
         <v>-2.97</v>
@@ -4962,7 +5253,7 @@
         <v>1.83</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L51" s="13"/>
       <c r="M51" s="6">
@@ -4978,19 +5269,25 @@
         <v>0.12</v>
       </c>
       <c r="Q51" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R51" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S51" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T51" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R51" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S51" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T51" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U51" s="18">
+        <v>0</v>
+      </c>
+      <c r="V51" s="19">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -5001,7 +5298,7 @@
         <v>300971</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E52" s="6">
         <v>6.06</v>
@@ -5010,7 +5307,7 @@
         <v>24.5</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H52" s="6">
         <v>-4.65</v>
@@ -5022,7 +5319,7 @@
         <v>2.37</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L52" s="13"/>
       <c r="M52" s="6">
@@ -5038,19 +5335,25 @@
         <v>-0.72</v>
       </c>
       <c r="Q52" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R52" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S52" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T52" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R52" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S52" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T52" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U52" s="21">
+        <v>1</v>
+      </c>
+      <c r="V52" s="19">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -5061,7 +5364,7 @@
         <v>300991</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E53" s="6">
         <v>-3.95</v>
@@ -5070,7 +5373,7 @@
         <v>29.87</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H53" s="6">
         <v>6.29</v>
@@ -5082,7 +5385,7 @@
         <v>8.84</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L53" s="13"/>
       <c r="M53" s="6">
@@ -5098,19 +5401,25 @@
         <v>0.49</v>
       </c>
       <c r="Q53" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R53" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S53" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="T53" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R53" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S53" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="T53" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U53" s="18">
+        <v>0</v>
+      </c>
+      <c r="V53" s="19">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -5121,7 +5430,7 @@
         <v>300993</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E54" s="6">
         <v>8.92</v>
@@ -5130,7 +5439,7 @@
         <v>16.24</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H54" s="6">
         <v>5.97</v>
@@ -5142,7 +5451,7 @@
         <v>9.98</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L54" s="13"/>
       <c r="M54" s="6">
@@ -5157,20 +5466,26 @@
       <c r="P54" s="14">
         <v>1.19</v>
       </c>
-      <c r="Q54" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="R54" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S54" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="T54" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
+      <c r="Q54" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R54" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S54" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="T54" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U54" s="21">
+        <v>1</v>
+      </c>
+      <c r="V54" s="19">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -5181,7 +5496,7 @@
         <v>301007</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E55" s="6">
         <v>-3.74</v>
@@ -5190,7 +5505,7 @@
         <v>29.33</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H55" s="6">
         <v>1.94</v>
@@ -5202,7 +5517,7 @@
         <v>4.53</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L55" s="13"/>
       <c r="M55" s="6">
@@ -5218,19 +5533,25 @@
         <v>-0.27</v>
       </c>
       <c r="Q55" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R55" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S55" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T55" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R55" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S55" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T55" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U55" s="18">
+        <v>0</v>
+      </c>
+      <c r="V55" s="19">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -5241,7 +5562,7 @@
         <v>301022</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E56" s="6">
         <v>1.42</v>
@@ -5250,7 +5571,7 @@
         <v>34.88</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H56" s="6">
         <v>-4.01</v>
@@ -5262,7 +5583,7 @@
         <v>-1.66</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L56" s="13"/>
       <c r="M56" s="6">
@@ -5278,19 +5599,25 @@
         <v>-0.1</v>
       </c>
       <c r="Q56" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R56" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S56" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T56" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R56" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S56" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T56" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U56" s="18">
+        <v>0</v>
+      </c>
+      <c r="V56" s="19">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -5301,7 +5628,7 @@
         <v>301024</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E57" s="6">
         <v>-7.49</v>
@@ -5310,7 +5637,7 @@
         <v>48.92</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H57" s="6">
         <v>-1.02</v>
@@ -5322,7 +5649,7 @@
         <v>2.09</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L57" s="13"/>
       <c r="M57" s="6">
@@ -5338,19 +5665,25 @@
         <v>-0.17</v>
       </c>
       <c r="Q57" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R57" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S57" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T57" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R57" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S57" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T57" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U57" s="18">
+        <v>0</v>
+      </c>
+      <c r="V57" s="19">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -5361,7 +5694,7 @@
         <v>301125</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E58" s="6">
         <v>-2.24</v>
@@ -5370,7 +5703,7 @@
         <v>16.56</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H58" s="6">
         <v>-4.23</v>
@@ -5382,7 +5715,7 @@
         <v>-0.66</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L58" s="13"/>
       <c r="M58" s="6">
@@ -5398,19 +5731,25 @@
         <v>1.14</v>
       </c>
       <c r="Q58" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R58" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S58" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T58" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R58" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S58" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T58" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U58" s="18">
+        <v>0</v>
+      </c>
+      <c r="V58" s="19">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -5421,7 +5760,7 @@
         <v>301132</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E59" s="6">
         <v>-2.27</v>
@@ -5430,7 +5769,7 @@
         <v>33.1</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H59" s="6">
         <v>6.86</v>
@@ -5442,7 +5781,7 @@
         <v>6.86</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L59" s="13"/>
       <c r="M59" s="6">
@@ -5458,19 +5797,25 @@
         <v>-0.65</v>
       </c>
       <c r="Q59" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R59" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S59" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T59" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R59" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S59" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T59" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U59" s="18">
+        <v>0</v>
+      </c>
+      <c r="V59" s="19">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -5481,7 +5826,7 @@
         <v>301137</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E60" s="6">
         <v>6.56</v>
@@ -5490,7 +5835,7 @@
         <v>39.98</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H60" s="6">
         <v>-3.58</v>
@@ -5502,7 +5847,7 @@
         <v>-0.35</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L60" s="13"/>
       <c r="M60" s="6">
@@ -5517,20 +5862,26 @@
       <c r="P60" s="14">
         <v>0.59</v>
       </c>
-      <c r="Q60" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="R60" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S60" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T60" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
+      <c r="Q60" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R60" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S60" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T60" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U60" s="21">
+        <v>1</v>
+      </c>
+      <c r="V60" s="19">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -5541,7 +5892,7 @@
         <v>301141</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E61" s="6">
         <v>-1.41</v>
@@ -5550,7 +5901,7 @@
         <v>61.7</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H61" s="6">
         <v>0.49</v>
@@ -5562,7 +5913,7 @@
         <v>3.57</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L61" s="13"/>
       <c r="M61" s="6">
@@ -5577,20 +5928,26 @@
       <c r="P61" s="14">
         <v>0.66</v>
       </c>
-      <c r="Q61" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="R61" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S61" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T61" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="Q61" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R61" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S61" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T61" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U61" s="21">
+        <v>1</v>
+      </c>
+      <c r="V61" s="19">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -5601,7 +5958,7 @@
         <v>301176</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E62" s="6">
         <v>4.29</v>
@@ -5610,7 +5967,7 @@
         <v>27.2</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H62" s="6">
         <v>20</v>
@@ -5622,7 +5979,7 @@
         <v>20</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L62" s="13"/>
       <c r="M62" s="6">
@@ -5638,19 +5995,25 @@
         <v>0.48</v>
       </c>
       <c r="Q62" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R62" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S62" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T62" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R62" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S62" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T62" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U62" s="18">
+        <v>0</v>
+      </c>
+      <c r="V62" s="19">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -5661,7 +6024,7 @@
         <v>301197</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E63" s="6">
         <v>-4.95</v>
@@ -5670,7 +6033,7 @@
         <v>21.33</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H63" s="6">
         <v>-0.38</v>
@@ -5682,7 +6045,7 @@
         <v>1.64</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L63" s="13"/>
       <c r="M63" s="6">
@@ -5698,19 +6061,25 @@
         <v>-0.4</v>
       </c>
       <c r="Q63" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R63" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S63" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T63" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R63" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S63" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T63" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U63" s="18">
+        <v>0</v>
+      </c>
+      <c r="V63" s="19">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -5721,7 +6090,7 @@
         <v>301205</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E64" s="6">
         <v>1.43</v>
@@ -5730,7 +6099,7 @@
         <v>97.43</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H64" s="6">
         <v>-0.85</v>
@@ -5742,7 +6111,7 @@
         <v>1.01</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L64" s="13"/>
       <c r="M64" s="6">
@@ -5758,19 +6127,25 @@
         <v>-0.58</v>
       </c>
       <c r="Q64" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R64" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S64" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T64" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R64" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S64" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T64" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U64" s="18">
+        <v>0</v>
+      </c>
+      <c r="V64" s="19">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -5781,7 +6156,7 @@
         <v>301213</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E65" s="6">
         <v>-3.84</v>
@@ -5790,7 +6165,7 @@
         <v>58.8</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H65" s="6">
         <v>-2.19</v>
@@ -5802,7 +6177,7 @@
         <v>1.65</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L65" s="13"/>
       <c r="M65" s="6">
@@ -5818,19 +6193,25 @@
         <v>0.22</v>
       </c>
       <c r="Q65" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R65" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S65" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T65" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R65" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S65" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T65" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U65" s="18">
+        <v>0</v>
+      </c>
+      <c r="V65" s="19">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -5841,7 +6222,7 @@
         <v>301312</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E66" s="6">
         <v>6.62</v>
@@ -5850,7 +6231,7 @@
         <v>44.78</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H66" s="6">
         <v>5.09</v>
@@ -5862,7 +6243,7 @@
         <v>11.66</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L66" s="13"/>
       <c r="M66" s="6">
@@ -5877,20 +6258,26 @@
       <c r="P66" s="14">
         <v>1.69</v>
       </c>
-      <c r="Q66" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="R66" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S66" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T66" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20">
+      <c r="Q66" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R66" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S66" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T66" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U66" s="21">
+        <v>1</v>
+      </c>
+      <c r="V66" s="19">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -5901,7 +6288,7 @@
         <v>301319</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E67" s="6">
         <v>-8.65</v>
@@ -5910,7 +6297,7 @@
         <v>30.82</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H67" s="6">
         <v>1.75</v>
@@ -5922,7 +6309,7 @@
         <v>4.61</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L67" s="13"/>
       <c r="M67" s="6">
@@ -5938,19 +6325,25 @@
         <v>-0.97</v>
       </c>
       <c r="Q67" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R67" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S67" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T67" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R67" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S67" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T67" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U67" s="18">
+        <v>0</v>
+      </c>
+      <c r="V67" s="19">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -5961,7 +6354,7 @@
         <v>301345</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E68" s="6">
         <v>3.55</v>
@@ -5970,7 +6363,7 @@
         <v>128.4</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H68" s="6">
         <v>3.59</v>
@@ -5982,7 +6375,7 @@
         <v>9</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L68" s="13"/>
       <c r="M68" s="6">
@@ -5997,20 +6390,26 @@
       <c r="P68" s="14">
         <v>1.74</v>
       </c>
-      <c r="Q68" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="R68" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S68" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T68" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
+      <c r="Q68" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R68" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S68" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T68" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U68" s="18">
+        <v>0</v>
+      </c>
+      <c r="V68" s="19">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -6021,7 +6420,7 @@
         <v>301379</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E69" s="6">
         <v>-6.53</v>
@@ -6030,7 +6429,7 @@
         <v>26.05</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H69" s="6">
         <v>1.92</v>
@@ -6042,7 +6441,7 @@
         <v>2.69</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L69" s="13"/>
       <c r="M69" s="6">
@@ -6058,19 +6457,25 @@
         <v>-1.05</v>
       </c>
       <c r="Q69" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R69" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S69" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T69" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R69" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S69" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T69" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U69" s="18">
+        <v>0</v>
+      </c>
+      <c r="V69" s="19">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -6081,7 +6486,7 @@
         <v>301408</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E70" s="6">
         <v>-8.72</v>
@@ -6090,7 +6495,7 @@
         <v>14.35</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H70" s="6">
         <v>-0.77</v>
@@ -6102,7 +6507,7 @@
         <v>1.74</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L70" s="13"/>
       <c r="M70" s="6">
@@ -6118,19 +6523,25 @@
         <v>-2.63</v>
       </c>
       <c r="Q70" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R70" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S70" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T70" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R70" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S70" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T70" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U70" s="18">
+        <v>0</v>
+      </c>
+      <c r="V70" s="19">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -6141,7 +6552,7 @@
         <v>301421</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E71" s="6">
         <v>-5.89</v>
@@ -6150,7 +6561,7 @@
         <v>75.35</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H71" s="6">
         <v>-1.26</v>
@@ -6162,7 +6573,7 @@
         <v>2.19</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L71" s="13"/>
       <c r="M71" s="6">
@@ -6178,19 +6589,25 @@
         <v>-1.6</v>
       </c>
       <c r="Q71" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R71" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S71" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T71" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R71" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S71" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T71" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U71" s="18">
+        <v>0</v>
+      </c>
+      <c r="V71" s="19">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -6201,7 +6618,7 @@
         <v>301511</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E72" s="6">
         <v>6.45</v>
@@ -6210,7 +6627,7 @@
         <v>22.76</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H72" s="6">
         <v>3.16</v>
@@ -6222,7 +6639,7 @@
         <v>4.75</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L72" s="13"/>
       <c r="M72" s="6">
@@ -6238,19 +6655,25 @@
         <v>0.04</v>
       </c>
       <c r="Q72" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R72" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S72" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T72" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R72" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S72" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T72" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U72" s="18">
+        <v>0</v>
+      </c>
+      <c r="V72" s="19">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -6261,7 +6684,7 @@
         <v>688084</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E73" s="6">
         <v>6.21</v>
@@ -6270,7 +6693,7 @@
         <v>95.94</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H73" s="6">
         <v>-3.06</v>
@@ -6282,7 +6705,7 @@
         <v>2.36</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L73" s="13"/>
       <c r="M73" s="6">
@@ -6297,20 +6720,26 @@
       <c r="P73" s="6">
         <v>0.21</v>
       </c>
-      <c r="Q73" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="R73" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S73" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T73" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20">
+      <c r="Q73" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R73" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S73" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T73" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U73" s="21">
+        <v>1</v>
+      </c>
+      <c r="V73" s="19">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -6321,7 +6750,7 @@
         <v>688117</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E74" s="6">
         <v>-5.62</v>
@@ -6330,7 +6759,7 @@
         <v>33.22</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H74" s="6">
         <v>1.29</v>
@@ -6342,7 +6771,7 @@
         <v>3.64</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L74" s="13"/>
       <c r="M74" s="6">
@@ -6358,19 +6787,25 @@
         <v>-0.44</v>
       </c>
       <c r="Q74" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R74" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S74" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T74" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R74" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S74" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T74" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U74" s="18">
+        <v>0</v>
+      </c>
+      <c r="V74" s="19">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -6381,7 +6816,7 @@
         <v>688151</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E75" s="6">
         <v>-6.87</v>
@@ -6390,7 +6825,7 @@
         <v>25.91</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H75" s="6">
         <v>-4.17</v>
@@ -6402,7 +6837,7 @@
         <v>2.59</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L75" s="13"/>
       <c r="M75" s="6">
@@ -6418,19 +6853,25 @@
         <v>-0.21</v>
       </c>
       <c r="Q75" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R75" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S75" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T75" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R75" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S75" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T75" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U75" s="18">
+        <v>0</v>
+      </c>
+      <c r="V75" s="19">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -6441,7 +6882,7 @@
         <v>688499</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E76" s="6">
         <v>-2.32</v>
@@ -6450,7 +6891,7 @@
         <v>39.08</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H76" s="6">
         <v>1.97</v>
@@ -6462,7 +6903,7 @@
         <v>3.61</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L76" s="13"/>
       <c r="M76" s="6">
@@ -6478,19 +6919,25 @@
         <v>-0.39</v>
       </c>
       <c r="Q76" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R76" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S76" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T76" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R76" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S76" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T76" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U76" s="18">
+        <v>0</v>
+      </c>
+      <c r="V76" s="19">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -6501,7 +6948,7 @@
         <v>688543</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E77" s="6">
         <v>-3.37</v>
@@ -6510,7 +6957,7 @@
         <v>56.8</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H77" s="6">
         <v>1.07</v>
@@ -6522,7 +6969,7 @@
         <v>2.34</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L77" s="13"/>
       <c r="M77" s="6">
@@ -6538,19 +6985,25 @@
         <v>-0.82</v>
       </c>
       <c r="Q77" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R77" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S77" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T77" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R77" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S77" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T77" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U77" s="18">
+        <v>0</v>
+      </c>
+      <c r="V77" s="19">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -6561,7 +7014,7 @@
         <v>688573</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E78" s="6">
         <v>-5.29</v>
@@ -6570,7 +7023,7 @@
         <v>33.3</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H78" s="6">
         <v>4.8</v>
@@ -6582,7 +7035,7 @@
         <v>11.05</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L78" s="13"/>
       <c r="M78" s="6">
@@ -6598,19 +7051,25 @@
         <v>0.13</v>
       </c>
       <c r="Q78" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R78" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S78" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T78" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="R78" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S78" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T78" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U78" s="18">
+        <v>0</v>
+      </c>
+      <c r="V78" s="19">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -6621,7 +7080,7 @@
         <v>688591</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E79" s="6">
         <v>-4.17</v>
@@ -6630,7 +7089,7 @@
         <v>48.3</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H79" s="6">
         <v>0.19</v>
@@ -6642,7 +7101,7 @@
         <v>2.9</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L79" s="13"/>
       <c r="M79" s="6">
@@ -6658,83 +7117,89 @@
         <v>-0.63</v>
       </c>
       <c r="Q79" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R79" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S79" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T79" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R79" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S79" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T79" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U79" s="18">
+        <v>0</v>
+      </c>
+      <c r="V79" s="19">
+        <v>2.67</v>
       </c>
     </row>
     <row r="80" spans="1:20">
-      <c r="A80" s="17"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="22"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="11"/>
       <c r="K80" s="23"/>
       <c r="L80" s="24"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="25"/>
-      <c r="R80" s="27"/>
-      <c r="S80" s="27"/>
-      <c r="T80" s="27"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
     </row>
     <row r="81" spans="1:20">
-      <c r="A81" s="21"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="25"/>
-      <c r="R81" s="27"/>
-      <c r="S81" s="27"/>
-      <c r="T81" s="27"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
     </row>
     <row r="82" spans="1:20">
-      <c r="A82" s="21"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="26"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="28"/>
-      <c r="R82" s="27"/>
-      <c r="S82" s="27"/>
-      <c r="T82" s="28"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="17"/>
+      <c r="T82" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
